--- a/src/data/Asia Pacific/Mining.xlsx
+++ b/src/data/Asia Pacific/Mining.xlsx
@@ -2174,10 +2174,10 @@
         <v>50000</v>
       </c>
       <c r="AQ2">
-        <v>37638.63</v>
+        <v>35046.1</v>
       </c>
       <c r="AR2">
-        <v>27932.44</v>
+        <v>30227.83</v>
       </c>
       <c r="AS2" t="s">
         <v>247</v>
@@ -2186,10 +2186,10 @@
         <v>50000</v>
       </c>
       <c r="AU2">
-        <v>44592.92</v>
+        <v>47500</v>
       </c>
       <c r="AV2">
-        <v>29063.07</v>
+        <v>42784.53</v>
       </c>
       <c r="AW2" t="s">
         <v>247</v>
@@ -2198,10 +2198,10 @@
         <v>50000</v>
       </c>
       <c r="AY2">
-        <v>36978.11</v>
+        <v>45392.24</v>
       </c>
       <c r="AZ2">
-        <v>26102.23</v>
+        <v>31594.22</v>
       </c>
       <c r="BA2" t="s">
         <v>247</v>
@@ -2210,10 +2210,10 @@
         <v>50000</v>
       </c>
       <c r="BC2">
-        <v>37814.75</v>
+        <v>38407.26</v>
       </c>
       <c r="BD2">
-        <v>25562.4</v>
+        <v>30821.33</v>
       </c>
       <c r="BE2" t="s">
         <v>247</v>
@@ -2222,10 +2222,10 @@
         <v>50000</v>
       </c>
       <c r="BG2">
-        <v>35341.13</v>
+        <v>46427.81</v>
       </c>
       <c r="BH2">
-        <v>26181.73</v>
+        <v>39676.87</v>
       </c>
       <c r="BI2" t="s">
         <v>247</v>
@@ -2234,10 +2234,10 @@
         <v>50000</v>
       </c>
       <c r="BK2">
-        <v>39730.32</v>
+        <v>40237.98</v>
       </c>
       <c r="BL2">
-        <v>37645.36</v>
+        <v>28891.34</v>
       </c>
       <c r="BM2" t="s">
         <v>433</v>
@@ -2246,10 +2246,10 @@
         <v>30000</v>
       </c>
       <c r="BO2">
-        <v>22804.79</v>
+        <v>25393.13</v>
       </c>
       <c r="BP2">
-        <v>20649.91</v>
+        <v>20565.59</v>
       </c>
       <c r="BQ2" t="s">
         <v>247</v>
@@ -2258,10 +2258,10 @@
         <v>30000</v>
       </c>
       <c r="BS2">
-        <v>27981.59</v>
+        <v>26430.27</v>
       </c>
       <c r="BT2">
-        <v>20422.45</v>
+        <v>20858.46</v>
       </c>
       <c r="BU2" t="s">
         <v>247</v>
@@ -2270,10 +2270,10 @@
         <v>30000</v>
       </c>
       <c r="BW2">
-        <v>22057.05</v>
+        <v>26298.44</v>
       </c>
       <c r="BX2">
-        <v>18899.82</v>
+        <v>20181.13</v>
       </c>
       <c r="BY2" t="s">
         <v>247</v>
@@ -2282,10 +2282,10 @@
         <v>30000</v>
       </c>
       <c r="CA2">
-        <v>27440.52</v>
+        <v>24916.24</v>
       </c>
       <c r="CB2">
-        <v>18618.76</v>
+        <v>18525.32</v>
       </c>
       <c r="CC2" t="s">
         <v>247</v>
@@ -2294,10 +2294,10 @@
         <v>30000</v>
       </c>
       <c r="CE2">
-        <v>23245.66</v>
+        <v>25002.11</v>
       </c>
       <c r="CF2">
-        <v>20378.71</v>
+        <v>22030.31</v>
       </c>
       <c r="CG2" t="s">
         <v>247</v>
@@ -2306,10 +2306,10 @@
         <v>30000</v>
       </c>
       <c r="CI2">
-        <v>20019.07</v>
+        <v>28500</v>
       </c>
       <c r="CJ2">
-        <v>12621.07</v>
+        <v>26987.11</v>
       </c>
       <c r="CK2" t="s">
         <v>247</v>
@@ -2318,10 +2318,10 @@
         <v>30000</v>
       </c>
       <c r="CM2">
-        <v>26210.83</v>
+        <v>26186.24</v>
       </c>
       <c r="CN2">
-        <v>22564.19</v>
+        <v>15171.1</v>
       </c>
       <c r="CO2" t="s">
         <v>247</v>
@@ -2452,10 +2452,10 @@
         <v>50000</v>
       </c>
       <c r="AQ3">
-        <v>34065.03</v>
+        <v>31913.25</v>
       </c>
       <c r="AR3">
-        <v>20801.78</v>
+        <v>23850.85</v>
       </c>
       <c r="AS3" t="s">
         <v>247</v>
@@ -2464,10 +2464,10 @@
         <v>50000</v>
       </c>
       <c r="AU3">
-        <v>40792.73</v>
+        <v>44383.28</v>
       </c>
       <c r="AV3">
-        <v>38110.8</v>
+        <v>35801.58</v>
       </c>
       <c r="AW3" t="s">
         <v>247</v>
@@ -2476,10 +2476,10 @@
         <v>50000</v>
       </c>
       <c r="AY3">
-        <v>34206.3</v>
+        <v>47500</v>
       </c>
       <c r="AZ3">
-        <v>27761.39</v>
+        <v>31286.86</v>
       </c>
       <c r="BA3" t="s">
         <v>247</v>
@@ -2488,10 +2488,10 @@
         <v>50000</v>
       </c>
       <c r="BC3">
-        <v>36184.22</v>
+        <v>43151.76</v>
       </c>
       <c r="BD3">
-        <v>27942.75</v>
+        <v>36121.41</v>
       </c>
       <c r="BE3" t="s">
         <v>247</v>
@@ -2500,10 +2500,10 @@
         <v>50000</v>
       </c>
       <c r="BG3">
-        <v>30373.82</v>
+        <v>47500</v>
       </c>
       <c r="BH3">
-        <v>24710.62</v>
+        <v>40226.63</v>
       </c>
       <c r="BI3" t="s">
         <v>247</v>
@@ -2512,10 +2512,10 @@
         <v>50000</v>
       </c>
       <c r="BK3">
-        <v>32537.89</v>
+        <v>42029.01</v>
       </c>
       <c r="BL3">
-        <v>20657.25</v>
+        <v>34454.43</v>
       </c>
       <c r="BM3" t="s">
         <v>434</v>
@@ -2524,10 +2524,10 @@
         <v>112500</v>
       </c>
       <c r="BO3">
-        <v>70886.97</v>
+        <v>100378.17</v>
       </c>
       <c r="BP3">
-        <v>43287.13</v>
+        <v>93826.42999999999</v>
       </c>
       <c r="BQ3" t="s">
         <v>439</v>
@@ -2536,10 +2536,10 @@
         <v>50000</v>
       </c>
       <c r="BS3">
-        <v>32922.02</v>
+        <v>41083.8</v>
       </c>
       <c r="BT3">
-        <v>22910.93</v>
+        <v>29740.08</v>
       </c>
       <c r="BU3" t="s">
         <v>247</v>
@@ -2548,10 +2548,10 @@
         <v>50000</v>
       </c>
       <c r="BW3">
-        <v>40896.75</v>
+        <v>39970.36</v>
       </c>
       <c r="BX3">
-        <v>31472.71</v>
+        <v>31436.8</v>
       </c>
       <c r="BY3" t="s">
         <v>247</v>
@@ -2560,10 +2560,10 @@
         <v>50000</v>
       </c>
       <c r="CA3">
-        <v>40573.85</v>
+        <v>40223.74</v>
       </c>
       <c r="CB3">
-        <v>30496.92</v>
+        <v>25604.61</v>
       </c>
       <c r="CC3" t="s">
         <v>247</v>
@@ -2572,10 +2572,10 @@
         <v>50000</v>
       </c>
       <c r="CE3">
-        <v>37757.51</v>
+        <v>44513.75</v>
       </c>
       <c r="CF3">
-        <v>24845.63</v>
+        <v>35537.02</v>
       </c>
       <c r="CG3" t="s">
         <v>247</v>
@@ -2584,10 +2584,10 @@
         <v>50000</v>
       </c>
       <c r="CI3">
-        <v>40976.21</v>
+        <v>42623.36</v>
       </c>
       <c r="CJ3">
-        <v>30238.22</v>
+        <v>39535.08</v>
       </c>
       <c r="CK3" t="s">
         <v>247</v>
@@ -2596,10 +2596,10 @@
         <v>50000</v>
       </c>
       <c r="CM3">
-        <v>45841.44</v>
+        <v>43632.83</v>
       </c>
       <c r="CN3">
-        <v>33850.27</v>
+        <v>29847.77</v>
       </c>
       <c r="CO3" t="s">
         <v>247</v>
@@ -2721,10 +2721,10 @@
         <v>2823511</v>
       </c>
       <c r="AQ4">
-        <v>2531817.52</v>
+        <v>2359126.59</v>
       </c>
       <c r="AR4">
-        <v>1808334.28</v>
+        <v>1889307.77</v>
       </c>
       <c r="AS4" t="s">
         <v>247</v>
@@ -2733,10 +2733,10 @@
         <v>2823511</v>
       </c>
       <c r="AU4">
-        <v>2525506.64</v>
+        <v>2134623.67</v>
       </c>
       <c r="AV4">
-        <v>1569944.16</v>
+        <v>1474716.64</v>
       </c>
       <c r="AW4" t="s">
         <v>247</v>
@@ -2745,10 +2745,10 @@
         <v>2823511</v>
       </c>
       <c r="AY4">
-        <v>2275720.77</v>
+        <v>2680421.94</v>
       </c>
       <c r="AZ4">
-        <v>1867786.29</v>
+        <v>2432916.59</v>
       </c>
       <c r="BA4" t="s">
         <v>247</v>
@@ -2757,10 +2757,10 @@
         <v>2823511</v>
       </c>
       <c r="BC4">
-        <v>1784583.13</v>
+        <v>1733272.23</v>
       </c>
       <c r="BD4">
-        <v>1668876.68</v>
+        <v>1428831</v>
       </c>
       <c r="BE4" t="s">
         <v>247</v>
@@ -2769,10 +2769,10 @@
         <v>2823511</v>
       </c>
       <c r="BG4">
-        <v>2112269.24</v>
+        <v>2513708.56</v>
       </c>
       <c r="BH4">
-        <v>1947338.23</v>
+        <v>2198630.8</v>
       </c>
       <c r="BI4" t="s">
         <v>247</v>
@@ -2781,10 +2781,10 @@
         <v>2823511</v>
       </c>
       <c r="BK4">
-        <v>2127251.14</v>
+        <v>2014467</v>
       </c>
       <c r="BL4">
-        <v>1695772.15</v>
+        <v>1489317.7</v>
       </c>
       <c r="BM4" t="s">
         <v>247</v>
@@ -2793,10 +2793,10 @@
         <v>2823511</v>
       </c>
       <c r="BO4">
-        <v>2293445.51</v>
+        <v>2404793.82</v>
       </c>
       <c r="BP4">
-        <v>1641812.2</v>
+        <v>2132444.12</v>
       </c>
       <c r="BQ4" t="s">
         <v>247</v>
@@ -2805,10 +2805,10 @@
         <v>2823511</v>
       </c>
       <c r="BS4">
-        <v>1930260.22</v>
+        <v>2226955.9</v>
       </c>
       <c r="BT4">
-        <v>1495101.29</v>
+        <v>1662715.49</v>
       </c>
       <c r="BU4" t="s">
         <v>247</v>
@@ -2817,10 +2817,10 @@
         <v>2823511</v>
       </c>
       <c r="BW4">
-        <v>1868557.75</v>
+        <v>2563807.88</v>
       </c>
       <c r="BX4">
-        <v>1646388.24</v>
+        <v>1946936.84</v>
       </c>
       <c r="BY4" t="s">
         <v>247</v>
@@ -2829,10 +2829,10 @@
         <v>5086000</v>
       </c>
       <c r="CA4">
-        <v>3732971.82</v>
+        <v>3527357.96</v>
       </c>
       <c r="CB4">
-        <v>2379208.64</v>
+        <v>2638533.18</v>
       </c>
       <c r="CC4" t="s">
         <v>247</v>
@@ -2841,10 +2841,10 @@
         <v>4171000</v>
       </c>
       <c r="CE4">
-        <v>2959849.75</v>
+        <v>3501308.3</v>
       </c>
       <c r="CF4">
-        <v>1995923.91</v>
+        <v>2652636.69</v>
       </c>
       <c r="CG4" t="s">
         <v>247</v>
@@ -2853,10 +2853,10 @@
         <v>4171000</v>
       </c>
       <c r="CI4">
-        <v>2740413.5</v>
+        <v>3287465.15</v>
       </c>
       <c r="CJ4">
-        <v>1756551.64</v>
+        <v>2932055.71</v>
       </c>
       <c r="CK4" t="s">
         <v>247</v>
@@ -2865,10 +2865,10 @@
         <v>4171000</v>
       </c>
       <c r="CM4">
-        <v>3326217.48</v>
+        <v>3645253.15</v>
       </c>
       <c r="CN4">
-        <v>3034533.04</v>
+        <v>2718198.32</v>
       </c>
       <c r="CO4" t="s">
         <v>247</v>
@@ -2990,10 +2990,10 @@
         <v>81637</v>
       </c>
       <c r="AQ5">
-        <v>68442.98</v>
+        <v>65839.06</v>
       </c>
       <c r="AR5">
-        <v>63765.28</v>
+        <v>51883.72</v>
       </c>
       <c r="AS5" t="s">
         <v>247</v>
@@ -3002,10 +3002,10 @@
         <v>81637</v>
       </c>
       <c r="AU5">
-        <v>58123</v>
+        <v>68520.28</v>
       </c>
       <c r="AV5">
-        <v>37770.13</v>
+        <v>48540.11</v>
       </c>
       <c r="AW5" t="s">
         <v>247</v>
@@ -3014,10 +3014,10 @@
         <v>81637</v>
       </c>
       <c r="AY5">
-        <v>53521.95</v>
+        <v>75210.64999999999</v>
       </c>
       <c r="AZ5">
-        <v>37465.27</v>
+        <v>66626.75</v>
       </c>
       <c r="BA5" t="s">
         <v>247</v>
@@ -3026,10 +3026,10 @@
         <v>81637</v>
       </c>
       <c r="BC5">
-        <v>67999.27</v>
+        <v>58626.74</v>
       </c>
       <c r="BD5">
-        <v>43239.87</v>
+        <v>48169.4</v>
       </c>
       <c r="BE5" t="s">
         <v>247</v>
@@ -3038,10 +3038,10 @@
         <v>81637</v>
       </c>
       <c r="BG5">
-        <v>67319.92999999999</v>
+        <v>67098.39</v>
       </c>
       <c r="BH5">
-        <v>49785.99</v>
+        <v>57204.47</v>
       </c>
       <c r="BI5" t="s">
         <v>247</v>
@@ -3050,10 +3050,10 @@
         <v>81637</v>
       </c>
       <c r="BK5">
-        <v>57393.52</v>
+        <v>58254.83</v>
       </c>
       <c r="BL5">
-        <v>40513.09</v>
+        <v>45461.81</v>
       </c>
       <c r="BM5" t="s">
         <v>247</v>
@@ -3062,10 +3062,10 @@
         <v>81637</v>
       </c>
       <c r="BO5">
-        <v>60923.91</v>
+        <v>74331.85000000001</v>
       </c>
       <c r="BP5">
-        <v>45205.46</v>
+        <v>64857.1</v>
       </c>
       <c r="BQ5" t="s">
         <v>247</v>
@@ -3074,10 +3074,10 @@
         <v>81637</v>
       </c>
       <c r="BS5">
-        <v>57311.36</v>
+        <v>61621.52</v>
       </c>
       <c r="BT5">
-        <v>44738.47</v>
+        <v>45237</v>
       </c>
       <c r="BU5" t="s">
         <v>247</v>
@@ -3086,10 +3086,10 @@
         <v>81637</v>
       </c>
       <c r="BW5">
-        <v>56787.38</v>
+        <v>72486.06</v>
       </c>
       <c r="BX5">
-        <v>50379.93</v>
+        <v>57530.93</v>
       </c>
       <c r="BY5" t="s">
         <v>247</v>
@@ -3098,10 +3098,10 @@
         <v>100000</v>
       </c>
       <c r="CA5">
-        <v>64698.17</v>
+        <v>84900.2</v>
       </c>
       <c r="CB5">
-        <v>57771.97</v>
+        <v>67786.14999999999</v>
       </c>
       <c r="CC5" t="s">
         <v>247</v>
@@ -3110,10 +3110,10 @@
         <v>100000</v>
       </c>
       <c r="CE5">
-        <v>64403.61</v>
+        <v>78983.84</v>
       </c>
       <c r="CF5">
-        <v>47153.32</v>
+        <v>61264.43</v>
       </c>
       <c r="CG5" t="s">
         <v>247</v>
@@ -3122,10 +3122,10 @@
         <v>100000</v>
       </c>
       <c r="CI5">
-        <v>79561.84</v>
+        <v>86394.58</v>
       </c>
       <c r="CJ5">
-        <v>56104.2</v>
+        <v>74278.74000000001</v>
       </c>
       <c r="CK5" t="s">
         <v>247</v>
@@ -3134,10 +3134,10 @@
         <v>100000</v>
       </c>
       <c r="CM5">
-        <v>94784.67999999999</v>
+        <v>78670.92999999999</v>
       </c>
       <c r="CN5">
-        <v>89026.8</v>
+        <v>62431.96</v>
       </c>
       <c r="CO5" t="s">
         <v>247</v>
@@ -3268,10 +3268,10 @@
         <v>29000</v>
       </c>
       <c r="AQ6">
-        <v>23134.65</v>
+        <v>22334.6</v>
       </c>
       <c r="AR6">
-        <v>17096.54</v>
+        <v>19120.48</v>
       </c>
       <c r="AS6" t="s">
         <v>247</v>
@@ -3280,10 +3280,10 @@
         <v>29000</v>
       </c>
       <c r="AU6">
-        <v>27034.79</v>
+        <v>21679.76</v>
       </c>
       <c r="AV6">
-        <v>25550.03</v>
+        <v>16403.99</v>
       </c>
       <c r="AW6" t="s">
         <v>247</v>
@@ -3292,10 +3292,10 @@
         <v>29000</v>
       </c>
       <c r="AY6">
-        <v>19528.24</v>
+        <v>27550</v>
       </c>
       <c r="AZ6">
-        <v>15411.22</v>
+        <v>22469.09</v>
       </c>
       <c r="BA6" t="s">
         <v>247</v>
@@ -3304,10 +3304,10 @@
         <v>29000</v>
       </c>
       <c r="BC6">
-        <v>25752.05</v>
+        <v>21004.34</v>
       </c>
       <c r="BD6">
-        <v>18358.49</v>
+        <v>17830.46</v>
       </c>
       <c r="BE6" t="s">
         <v>247</v>
@@ -3316,10 +3316,10 @@
         <v>29000</v>
       </c>
       <c r="BG6">
-        <v>20075.43</v>
+        <v>24573.14</v>
       </c>
       <c r="BH6">
-        <v>18406.15</v>
+        <v>20505.44</v>
       </c>
       <c r="BI6" t="s">
         <v>247</v>
@@ -3328,10 +3328,10 @@
         <v>29000</v>
       </c>
       <c r="BK6">
-        <v>21708.44</v>
+        <v>18967.48</v>
       </c>
       <c r="BL6">
-        <v>15411.93</v>
+        <v>13456.58</v>
       </c>
       <c r="BM6" t="s">
         <v>247</v>
@@ -3340,10 +3340,10 @@
         <v>29000</v>
       </c>
       <c r="BO6">
-        <v>18279.2</v>
+        <v>27550</v>
       </c>
       <c r="BP6">
-        <v>10990.34</v>
+        <v>24342.26</v>
       </c>
       <c r="BQ6" t="s">
         <v>247</v>
@@ -3352,10 +3352,10 @@
         <v>29000</v>
       </c>
       <c r="BS6">
-        <v>24193.33</v>
+        <v>22633.65</v>
       </c>
       <c r="BT6">
-        <v>21097.9</v>
+        <v>18141.14</v>
       </c>
       <c r="BU6" t="s">
         <v>247</v>
@@ -3364,10 +3364,10 @@
         <v>29000</v>
       </c>
       <c r="BW6">
-        <v>23607.83</v>
+        <v>22787.48</v>
       </c>
       <c r="BX6">
-        <v>17244.48</v>
+        <v>19340.85</v>
       </c>
       <c r="BY6" t="s">
         <v>247</v>
@@ -3376,10 +3376,10 @@
         <v>914000</v>
       </c>
       <c r="CA6">
-        <v>788246.12</v>
+        <v>702598.8199999999</v>
       </c>
       <c r="CB6">
-        <v>578430.29</v>
+        <v>596074.91</v>
       </c>
       <c r="CC6" t="s">
         <v>247</v>
@@ -3388,10 +3388,10 @@
         <v>914000</v>
       </c>
       <c r="CE6">
-        <v>721445.5</v>
+        <v>758679.9399999999</v>
       </c>
       <c r="CF6">
-        <v>451237.49</v>
+        <v>559991.58</v>
       </c>
       <c r="CG6" t="s">
         <v>247</v>
@@ -3400,10 +3400,10 @@
         <v>914000</v>
       </c>
       <c r="CI6">
-        <v>867476.7</v>
+        <v>774600.6800000001</v>
       </c>
       <c r="CJ6">
-        <v>643724.35</v>
+        <v>605409.17</v>
       </c>
       <c r="CK6" t="s">
         <v>247</v>
@@ -3412,10 +3412,10 @@
         <v>914000</v>
       </c>
       <c r="CM6">
-        <v>778038.25</v>
+        <v>731376.74</v>
       </c>
       <c r="CN6">
-        <v>505825.73</v>
+        <v>489472.78</v>
       </c>
       <c r="CO6" t="s">
         <v>247</v>
@@ -3546,10 +3546,10 @@
         <v>0.1</v>
       </c>
       <c r="AQ7">
+        <v>0.09</v>
+      </c>
+      <c r="AR7">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="AR7">
-        <v>0.06</v>
       </c>
       <c r="AS7" t="s">
         <v>247</v>
@@ -3558,10 +3558,10 @@
         <v>0.1</v>
       </c>
       <c r="AU7">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AV7">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AW7" t="s">
         <v>247</v>
@@ -3570,10 +3570,10 @@
         <v>1950000</v>
       </c>
       <c r="AY7">
-        <v>1484677.33</v>
+        <v>1190691.92</v>
       </c>
       <c r="AZ7">
-        <v>1062439.27</v>
+        <v>962125.25</v>
       </c>
       <c r="BA7" t="s">
         <v>247</v>
@@ -3582,10 +3582,10 @@
         <v>4000000</v>
       </c>
       <c r="BC7">
-        <v>3235519.35</v>
+        <v>3215817.16</v>
       </c>
       <c r="BD7">
-        <v>2255156.97</v>
+        <v>2519051.76</v>
       </c>
       <c r="BE7" t="s">
         <v>247</v>
@@ -3594,10 +3594,10 @@
         <v>4598763.5</v>
       </c>
       <c r="BG7">
-        <v>2785437.83</v>
+        <v>3274430.36</v>
       </c>
       <c r="BH7">
-        <v>1989970.72</v>
+        <v>3041001.45</v>
       </c>
       <c r="BI7" t="s">
         <v>247</v>
@@ -3606,10 +3606,10 @@
         <v>1393646</v>
       </c>
       <c r="BK7">
-        <v>1282664.47</v>
+        <v>1082901.87</v>
       </c>
       <c r="BL7">
-        <v>788433.46</v>
+        <v>801046.4399999999</v>
       </c>
       <c r="BM7" t="s">
         <v>435</v>
@@ -3618,10 +3618,10 @@
         <v>1732439</v>
       </c>
       <c r="BO7">
-        <v>1584225.61</v>
+        <v>1151180.2</v>
       </c>
       <c r="BP7">
-        <v>1071300.09</v>
+        <v>963339.09</v>
       </c>
       <c r="BQ7" t="s">
         <v>440</v>
@@ -3630,10 +3630,10 @@
         <v>1626774</v>
       </c>
       <c r="BS7">
-        <v>1380407.58</v>
+        <v>1348166.19</v>
       </c>
       <c r="BT7">
-        <v>927574.1899999999</v>
+        <v>1039789.61</v>
       </c>
       <c r="BU7" t="s">
         <v>247</v>
@@ -3642,10 +3642,10 @@
         <v>1626774</v>
       </c>
       <c r="BW7">
-        <v>999183.83</v>
+        <v>1442565.57</v>
       </c>
       <c r="BX7">
-        <v>680790.5</v>
+        <v>1017575.98</v>
       </c>
       <c r="BY7" t="s">
         <v>247</v>
@@ -3654,10 +3654,10 @@
         <v>1626774</v>
       </c>
       <c r="CA7">
-        <v>1447780.55</v>
+        <v>1242647.36</v>
       </c>
       <c r="CB7">
-        <v>909594.4300000001</v>
+        <v>1152571.35</v>
       </c>
       <c r="CC7" t="s">
         <v>247</v>
@@ -3666,10 +3666,10 @@
         <v>1626774</v>
       </c>
       <c r="CE7">
-        <v>1319863.86</v>
+        <v>1026667.77</v>
       </c>
       <c r="CF7">
-        <v>1250648.29</v>
+        <v>886058.84</v>
       </c>
       <c r="CG7" t="s">
         <v>247</v>
@@ -3678,10 +3678,10 @@
         <v>1626774</v>
       </c>
       <c r="CI7">
-        <v>1096934.22</v>
+        <v>1394910.37</v>
       </c>
       <c r="CJ7">
-        <v>899592.64</v>
+        <v>1063148.5</v>
       </c>
       <c r="CK7" t="s">
         <v>247</v>
@@ -3690,10 +3690,10 @@
         <v>1626774</v>
       </c>
       <c r="CM7">
-        <v>989265.84</v>
+        <v>1454402.36</v>
       </c>
       <c r="CN7">
-        <v>879285.62</v>
+        <v>1150996.78</v>
       </c>
       <c r="CO7" t="s">
         <v>247</v>
@@ -3824,10 +3824,10 @@
         <v>149000</v>
       </c>
       <c r="AQ8">
-        <v>124970.31</v>
+        <v>125377.01</v>
       </c>
       <c r="AR8">
-        <v>104081.33</v>
+        <v>99757.78</v>
       </c>
       <c r="AS8" t="s">
         <v>247</v>
@@ -3836,10 +3836,10 @@
         <v>149000</v>
       </c>
       <c r="AU8">
-        <v>133291.09</v>
+        <v>130600.62</v>
       </c>
       <c r="AV8">
-        <v>90876.28</v>
+        <v>99035.47</v>
       </c>
       <c r="AW8" t="s">
         <v>247</v>
@@ -3848,10 +3848,10 @@
         <v>149000</v>
       </c>
       <c r="AY8">
-        <v>130390.67</v>
+        <v>109100.13</v>
       </c>
       <c r="AZ8">
-        <v>82523.06</v>
+        <v>78536.96000000001</v>
       </c>
       <c r="BA8" t="s">
         <v>247</v>
@@ -3860,10 +3860,10 @@
         <v>149000</v>
       </c>
       <c r="BC8">
-        <v>127647.12</v>
+        <v>126469.15</v>
       </c>
       <c r="BD8">
-        <v>108889.78</v>
+        <v>90637.47</v>
       </c>
       <c r="BE8" t="s">
         <v>247</v>
@@ -3872,10 +3872,10 @@
         <v>149000</v>
       </c>
       <c r="BG8">
-        <v>138603.82</v>
+        <v>110456.24</v>
       </c>
       <c r="BH8">
-        <v>114890.31</v>
+        <v>103993.01</v>
       </c>
       <c r="BI8" t="s">
         <v>247</v>
@@ -3884,10 +3884,10 @@
         <v>406614</v>
       </c>
       <c r="BK8">
-        <v>277351.23</v>
+        <v>345624.89</v>
       </c>
       <c r="BL8">
-        <v>244899.33</v>
+        <v>265208.15</v>
       </c>
       <c r="BM8" t="s">
         <v>247</v>
@@ -3896,10 +3896,10 @@
         <v>272210</v>
       </c>
       <c r="BO8">
-        <v>203920.04</v>
+        <v>180503.89</v>
       </c>
       <c r="BP8">
-        <v>191720.33</v>
+        <v>157151.37</v>
       </c>
       <c r="BQ8" t="s">
         <v>441</v>
@@ -3908,10 +3908,10 @@
         <v>211237</v>
       </c>
       <c r="BS8">
-        <v>135311.01</v>
+        <v>170522.13</v>
       </c>
       <c r="BT8">
-        <v>106876.42</v>
+        <v>140332.43</v>
       </c>
       <c r="BU8" t="s">
         <v>247</v>
@@ -3920,10 +3920,10 @@
         <v>211237</v>
       </c>
       <c r="BW8">
-        <v>192473.84</v>
+        <v>175356.1</v>
       </c>
       <c r="BX8">
-        <v>170587.84</v>
+        <v>150344.56</v>
       </c>
       <c r="BY8" t="s">
         <v>247</v>
@@ -3932,10 +3932,10 @@
         <v>211237</v>
       </c>
       <c r="CA8">
-        <v>172933.58</v>
+        <v>161764.74</v>
       </c>
       <c r="CB8">
-        <v>156308.03</v>
+        <v>150206.71</v>
       </c>
       <c r="CC8" t="s">
         <v>247</v>
@@ -3944,10 +3944,10 @@
         <v>211237</v>
       </c>
       <c r="CE8">
-        <v>198022.8</v>
+        <v>173180.6</v>
       </c>
       <c r="CF8">
-        <v>176282.02</v>
+        <v>144081.81</v>
       </c>
       <c r="CG8" t="s">
         <v>247</v>
@@ -3956,10 +3956,10 @@
         <v>211237</v>
       </c>
       <c r="CI8">
-        <v>144800.68</v>
+        <v>170945.1</v>
       </c>
       <c r="CJ8">
-        <v>111920.81</v>
+        <v>142909.08</v>
       </c>
       <c r="CK8" t="s">
         <v>247</v>
@@ -3968,10 +3968,10 @@
         <v>211237</v>
       </c>
       <c r="CM8">
-        <v>188915.52</v>
+        <v>182702.51</v>
       </c>
       <c r="CN8">
-        <v>162699.02</v>
+        <v>168586.22</v>
       </c>
       <c r="CO8" t="s">
         <v>247</v>
@@ -4102,10 +4102,10 @@
         <v>35875</v>
       </c>
       <c r="AQ9">
-        <v>26875.95</v>
+        <v>27166.41</v>
       </c>
       <c r="AR9">
-        <v>24074.59</v>
+        <v>22352.62</v>
       </c>
       <c r="AS9" t="s">
         <v>247</v>
@@ -4114,10 +4114,10 @@
         <v>35875</v>
       </c>
       <c r="AU9">
-        <v>23881.56</v>
+        <v>28473.89</v>
       </c>
       <c r="AV9">
-        <v>14422.64</v>
+        <v>24274.97</v>
       </c>
       <c r="AW9" t="s">
         <v>247</v>
@@ -4126,10 +4126,10 @@
         <v>35875</v>
       </c>
       <c r="AY9">
-        <v>33766.05</v>
+        <v>29636.04</v>
       </c>
       <c r="AZ9">
-        <v>21636.96</v>
+        <v>24433.3</v>
       </c>
       <c r="BA9" t="s">
         <v>247</v>
@@ -4138,10 +4138,10 @@
         <v>35875</v>
       </c>
       <c r="BC9">
-        <v>28456.6</v>
+        <v>32781.48</v>
       </c>
       <c r="BD9">
-        <v>19473.53</v>
+        <v>29159.05</v>
       </c>
       <c r="BE9" t="s">
         <v>247</v>
@@ -4150,10 +4150,10 @@
         <v>35875</v>
       </c>
       <c r="BG9">
-        <v>28213.95</v>
+        <v>26587.05</v>
       </c>
       <c r="BH9">
-        <v>18938.25</v>
+        <v>19554.41</v>
       </c>
       <c r="BI9" t="s">
         <v>247</v>
@@ -4162,10 +4162,10 @@
         <v>35875</v>
       </c>
       <c r="BK9">
-        <v>31996.39</v>
+        <v>27644.69</v>
       </c>
       <c r="BL9">
-        <v>20447.11</v>
+        <v>22318.82</v>
       </c>
       <c r="BM9" t="s">
         <v>247</v>
@@ -4174,10 +4174,10 @@
         <v>35875</v>
       </c>
       <c r="BO9">
-        <v>31906.04</v>
+        <v>31475.64</v>
       </c>
       <c r="BP9">
-        <v>20348.9</v>
+        <v>26419.35</v>
       </c>
       <c r="BQ9" t="s">
         <v>247</v>
@@ -4186,10 +4186,10 @@
         <v>35875</v>
       </c>
       <c r="BS9">
-        <v>24022.59</v>
+        <v>26854.18</v>
       </c>
       <c r="BT9">
-        <v>15127.67</v>
+        <v>20552.71</v>
       </c>
       <c r="BU9" t="s">
         <v>247</v>
@@ -4198,10 +4198,10 @@
         <v>35875</v>
       </c>
       <c r="BW9">
-        <v>28743</v>
+        <v>27272.65</v>
       </c>
       <c r="BX9">
-        <v>21937.03</v>
+        <v>20229.59</v>
       </c>
       <c r="BY9" t="s">
         <v>247</v>
@@ -4210,10 +4210,10 @@
         <v>35875</v>
       </c>
       <c r="CA9">
-        <v>32057.99</v>
+        <v>28930.31</v>
       </c>
       <c r="CB9">
-        <v>23417.53</v>
+        <v>21587.12</v>
       </c>
       <c r="CC9" t="s">
         <v>247</v>
@@ -4222,10 +4222,10 @@
         <v>35875</v>
       </c>
       <c r="CE9">
-        <v>24869.25</v>
+        <v>30734.75</v>
       </c>
       <c r="CF9">
-        <v>15116.59</v>
+        <v>26729.84</v>
       </c>
       <c r="CG9" t="s">
         <v>247</v>
@@ -4234,10 +4234,10 @@
         <v>35875</v>
       </c>
       <c r="CI9">
-        <v>27584.35</v>
+        <v>25994.94</v>
       </c>
       <c r="CJ9">
-        <v>20929.49</v>
+        <v>18606.72</v>
       </c>
       <c r="CK9" t="s">
         <v>247</v>
@@ -4246,10 +4246,10 @@
         <v>35875</v>
       </c>
       <c r="CM9">
-        <v>25039.79</v>
+        <v>28298.88</v>
       </c>
       <c r="CN9">
-        <v>20631.19</v>
+        <v>21201.64</v>
       </c>
       <c r="CO9" t="s">
         <v>247</v>
@@ -4380,10 +4380,10 @@
         <v>992742</v>
       </c>
       <c r="AQ10">
-        <v>843617.52</v>
+        <v>847965.3199999999</v>
       </c>
       <c r="AR10">
-        <v>589784.9399999999</v>
+        <v>717477.24</v>
       </c>
       <c r="AS10" t="s">
         <v>247</v>
@@ -4392,10 +4392,10 @@
         <v>992742</v>
       </c>
       <c r="AU10">
-        <v>738785.55</v>
+        <v>840681.75</v>
       </c>
       <c r="AV10">
-        <v>675843.3199999999</v>
+        <v>647765.58</v>
       </c>
       <c r="AW10" t="s">
         <v>247</v>
@@ -4404,10 +4404,10 @@
         <v>988189</v>
       </c>
       <c r="AY10">
-        <v>860292.4300000001</v>
+        <v>842296.78</v>
       </c>
       <c r="AZ10">
-        <v>627050.4300000001</v>
+        <v>609936.71</v>
       </c>
       <c r="BA10" t="s">
         <v>247</v>
@@ -4416,10 +4416,10 @@
         <v>988189</v>
       </c>
       <c r="BC10">
-        <v>680660.96</v>
+        <v>773581.48</v>
       </c>
       <c r="BD10">
-        <v>499606.49</v>
+        <v>567994.28</v>
       </c>
       <c r="BE10" t="s">
         <v>247</v>
@@ -4428,10 +4428,10 @@
         <v>988189</v>
       </c>
       <c r="BG10">
-        <v>881149.52</v>
+        <v>922211.8199999999</v>
       </c>
       <c r="BH10">
-        <v>591665.1800000001</v>
+        <v>718645.47</v>
       </c>
       <c r="BI10" t="s">
         <v>247</v>
@@ -4440,10 +4440,10 @@
         <v>988189</v>
       </c>
       <c r="BK10">
-        <v>929705.22</v>
+        <v>938779.55</v>
       </c>
       <c r="BL10">
-        <v>783438.6</v>
+        <v>809559.5</v>
       </c>
       <c r="BM10" t="s">
         <v>247</v>
@@ -4452,10 +4452,10 @@
         <v>988189</v>
       </c>
       <c r="BO10">
-        <v>768792.92</v>
+        <v>863457.58</v>
       </c>
       <c r="BP10">
-        <v>657723.61</v>
+        <v>598027.29</v>
       </c>
       <c r="BQ10" t="s">
         <v>247</v>
@@ -4464,10 +4464,10 @@
         <v>988189</v>
       </c>
       <c r="BS10">
-        <v>775217.49</v>
+        <v>778570.33</v>
       </c>
       <c r="BT10">
-        <v>553798.29</v>
+        <v>658890.58</v>
       </c>
       <c r="BU10" t="s">
         <v>247</v>
@@ -4476,10 +4476,10 @@
         <v>988189</v>
       </c>
       <c r="BW10">
-        <v>816738.15</v>
+        <v>694919.45</v>
       </c>
       <c r="BX10">
-        <v>623323.8100000001</v>
+        <v>488005.71</v>
       </c>
       <c r="BY10" t="s">
         <v>247</v>
@@ -4488,10 +4488,10 @@
         <v>988189</v>
       </c>
       <c r="CA10">
-        <v>850664.5600000001</v>
+        <v>834117.4</v>
       </c>
       <c r="CB10">
-        <v>637669.9399999999</v>
+        <v>661151.79</v>
       </c>
       <c r="CC10" t="s">
         <v>247</v>
@@ -4500,10 +4500,10 @@
         <v>988189</v>
       </c>
       <c r="CE10">
-        <v>881207.26</v>
+        <v>737669.1899999999</v>
       </c>
       <c r="CF10">
-        <v>545909.73</v>
+        <v>606968.17</v>
       </c>
       <c r="CG10" t="s">
         <v>247</v>
@@ -4512,10 +4512,10 @@
         <v>988189</v>
       </c>
       <c r="CI10">
-        <v>868252.49</v>
+        <v>841552</v>
       </c>
       <c r="CJ10">
-        <v>586777.67</v>
+        <v>639988.98</v>
       </c>
       <c r="CK10" t="s">
         <v>247</v>
@@ -4524,10 +4524,10 @@
         <v>988189</v>
       </c>
       <c r="CM10">
-        <v>702293.03</v>
+        <v>741865.35</v>
       </c>
       <c r="CN10">
-        <v>532146.3100000001</v>
+        <v>548799.58</v>
       </c>
       <c r="CO10" t="s">
         <v>247</v>
@@ -4658,10 +4658,10 @@
         <v>506647</v>
       </c>
       <c r="AQ11">
-        <v>410309.36</v>
+        <v>419505.85</v>
       </c>
       <c r="AR11">
-        <v>307965.03</v>
+        <v>384114.73</v>
       </c>
       <c r="AS11" t="s">
         <v>247</v>
@@ -4670,10 +4670,10 @@
         <v>506647</v>
       </c>
       <c r="AU11">
-        <v>464110.38</v>
+        <v>402330.81</v>
       </c>
       <c r="AV11">
-        <v>299216.65</v>
+        <v>338347.56</v>
       </c>
       <c r="AW11" t="s">
         <v>247</v>
@@ -4682,10 +4682,10 @@
         <v>504588</v>
       </c>
       <c r="AY11">
-        <v>455563.13</v>
+        <v>430807.26</v>
       </c>
       <c r="AZ11">
-        <v>285164.06</v>
+        <v>312341.87</v>
       </c>
       <c r="BA11" t="s">
         <v>247</v>
@@ -4694,10 +4694,10 @@
         <v>504588</v>
       </c>
       <c r="BC11">
-        <v>328362.79</v>
+        <v>426404.15</v>
       </c>
       <c r="BD11">
-        <v>235823.42</v>
+        <v>290852.56</v>
       </c>
       <c r="BE11" t="s">
         <v>247</v>
@@ -4706,10 +4706,10 @@
         <v>504588</v>
       </c>
       <c r="BG11">
-        <v>346595.81</v>
+        <v>421230.89</v>
       </c>
       <c r="BH11">
-        <v>231230.67</v>
+        <v>323792.06</v>
       </c>
       <c r="BI11" t="s">
         <v>247</v>
@@ -4718,10 +4718,10 @@
         <v>504588</v>
       </c>
       <c r="BK11">
-        <v>350894.31</v>
+        <v>462619.6</v>
       </c>
       <c r="BL11">
-        <v>266543.97</v>
+        <v>387977.5</v>
       </c>
       <c r="BM11" t="s">
         <v>247</v>
@@ -4730,10 +4730,10 @@
         <v>504588</v>
       </c>
       <c r="BO11">
-        <v>426093.02</v>
+        <v>372363.02</v>
       </c>
       <c r="BP11">
-        <v>369122.1</v>
+        <v>278569.12</v>
       </c>
       <c r="BQ11" t="s">
         <v>247</v>
@@ -4742,10 +4742,10 @@
         <v>504588</v>
       </c>
       <c r="BS11">
-        <v>436293.1</v>
+        <v>354973.66</v>
       </c>
       <c r="BT11">
-        <v>309753.73</v>
+        <v>299507.34</v>
       </c>
       <c r="BU11" t="s">
         <v>247</v>
@@ -4754,10 +4754,10 @@
         <v>504588</v>
       </c>
       <c r="BW11">
-        <v>416540.77</v>
+        <v>372360.57</v>
       </c>
       <c r="BX11">
-        <v>294740.68</v>
+        <v>232433.94</v>
       </c>
       <c r="BY11" t="s">
         <v>247</v>
@@ -4766,10 +4766,10 @@
         <v>504588</v>
       </c>
       <c r="CA11">
-        <v>451126.07</v>
+        <v>402108.97</v>
       </c>
       <c r="CB11">
-        <v>354479.84</v>
+        <v>324673.14</v>
       </c>
       <c r="CC11" t="s">
         <v>247</v>
@@ -4778,10 +4778,10 @@
         <v>504588</v>
       </c>
       <c r="CE11">
-        <v>339067.91</v>
+        <v>424138.71</v>
       </c>
       <c r="CF11">
-        <v>268053.06</v>
+        <v>364536.61</v>
       </c>
       <c r="CG11" t="s">
         <v>247</v>
@@ -4790,10 +4790,10 @@
         <v>504588</v>
       </c>
       <c r="CI11">
-        <v>462458.72</v>
+        <v>472859.15</v>
       </c>
       <c r="CJ11">
-        <v>405562.04</v>
+        <v>338011.25</v>
       </c>
       <c r="CK11" t="s">
         <v>247</v>
@@ -4802,10 +4802,10 @@
         <v>504588</v>
       </c>
       <c r="CM11">
-        <v>370293.05</v>
+        <v>349289.44</v>
       </c>
       <c r="CN11">
-        <v>340585.93</v>
+        <v>231343.25</v>
       </c>
       <c r="CO11" t="s">
         <v>247</v>
@@ -4927,10 +4927,10 @@
         <v>5599000</v>
       </c>
       <c r="AQ12">
-        <v>3372314.41</v>
+        <v>5211633.48</v>
       </c>
       <c r="AR12">
-        <v>2976634.69</v>
+        <v>4333932.75</v>
       </c>
       <c r="AS12" t="s">
         <v>247</v>
@@ -4939,10 +4939,10 @@
         <v>5599000</v>
       </c>
       <c r="AU12">
-        <v>3759859.34</v>
+        <v>4420769.78</v>
       </c>
       <c r="AV12">
-        <v>2792885.8</v>
+        <v>3488195.54</v>
       </c>
       <c r="AW12" t="s">
         <v>247</v>
@@ -4951,10 +4951,10 @@
         <v>5599000</v>
       </c>
       <c r="AY12">
-        <v>4093723.4</v>
+        <v>4856208.38</v>
       </c>
       <c r="AZ12">
-        <v>2936858.42</v>
+        <v>4114212.71</v>
       </c>
       <c r="BA12" t="s">
         <v>247</v>
@@ -4963,10 +4963,10 @@
         <v>5599000</v>
       </c>
       <c r="BC12">
-        <v>4700495.49</v>
+        <v>4564935.5</v>
       </c>
       <c r="BD12">
-        <v>4187181.87</v>
+        <v>4041518.91</v>
       </c>
       <c r="BE12" t="s">
         <v>247</v>
@@ -4975,10 +4975,10 @@
         <v>5599000</v>
       </c>
       <c r="BG12">
-        <v>3669317.59</v>
+        <v>3498098.78</v>
       </c>
       <c r="BH12">
-        <v>3425892.76</v>
+        <v>2856611.89</v>
       </c>
       <c r="BI12" t="s">
         <v>247</v>
@@ -4987,10 +4987,10 @@
         <v>5599000</v>
       </c>
       <c r="BK12">
-        <v>3941687.7</v>
+        <v>4921257.99</v>
       </c>
       <c r="BL12">
-        <v>2571981.92</v>
+        <v>4295048.03</v>
       </c>
       <c r="BM12" t="s">
         <v>247</v>
@@ -4999,10 +4999,10 @@
         <v>5599000</v>
       </c>
       <c r="BO12">
-        <v>4255851.01</v>
+        <v>4879643.44</v>
       </c>
       <c r="BP12">
-        <v>2815556.23</v>
+        <v>4279436.66</v>
       </c>
       <c r="BQ12" t="s">
         <v>247</v>
@@ -5011,10 +5011,10 @@
         <v>1181580</v>
       </c>
       <c r="BS12">
-        <v>1113699.41</v>
+        <v>983046.9399999999</v>
       </c>
       <c r="BT12">
-        <v>963888.04</v>
+        <v>667706.88</v>
       </c>
       <c r="BU12" t="s">
         <v>247</v>
@@ -5023,10 +5023,10 @@
         <v>745059</v>
       </c>
       <c r="BW12">
-        <v>665690.86</v>
+        <v>505430.15</v>
       </c>
       <c r="BX12">
-        <v>562955.63</v>
+        <v>457701.61</v>
       </c>
       <c r="BY12" t="s">
         <v>247</v>
@@ -5035,10 +5035,10 @@
         <v>745059</v>
       </c>
       <c r="CA12">
-        <v>646487.67</v>
+        <v>626867.05</v>
       </c>
       <c r="CB12">
-        <v>405671.05</v>
+        <v>449155.79</v>
       </c>
       <c r="CC12" t="s">
         <v>247</v>
@@ -5047,10 +5047,10 @@
         <v>745059</v>
       </c>
       <c r="CE12">
-        <v>493551.16</v>
+        <v>561511.89</v>
       </c>
       <c r="CF12">
-        <v>440161.72</v>
+        <v>479814.42</v>
       </c>
       <c r="CG12" t="s">
         <v>247</v>
@@ -5059,10 +5059,10 @@
         <v>745059</v>
       </c>
       <c r="CI12">
-        <v>533903.9399999999</v>
+        <v>552256.74</v>
       </c>
       <c r="CJ12">
-        <v>354090.9</v>
+        <v>402178.85</v>
       </c>
       <c r="CK12" t="s">
         <v>247</v>
@@ -5071,10 +5071,10 @@
         <v>745059</v>
       </c>
       <c r="CM12">
-        <v>508096.76</v>
+        <v>555657.6800000001</v>
       </c>
       <c r="CN12">
-        <v>407576.84</v>
+        <v>524012.03</v>
       </c>
       <c r="CO12" t="s">
         <v>247</v>
@@ -5196,10 +5196,10 @@
         <v>499996</v>
       </c>
       <c r="AQ13">
-        <v>321492.74</v>
+        <v>401898.24</v>
       </c>
       <c r="AR13">
-        <v>250276.98</v>
+        <v>324616.88</v>
       </c>
       <c r="AS13" t="s">
         <v>247</v>
@@ -5208,10 +5208,10 @@
         <v>499996</v>
       </c>
       <c r="AU13">
-        <v>436605.8</v>
+        <v>363679.35</v>
       </c>
       <c r="AV13">
-        <v>355461.75</v>
+        <v>342519.77</v>
       </c>
       <c r="AW13" t="s">
         <v>247</v>
@@ -5220,10 +5220,10 @@
         <v>499996</v>
       </c>
       <c r="AY13">
-        <v>473798.69</v>
+        <v>447302.37</v>
       </c>
       <c r="AZ13">
-        <v>447712.35</v>
+        <v>424937.25</v>
       </c>
       <c r="BA13" t="s">
         <v>247</v>
@@ -5232,10 +5232,10 @@
         <v>499996</v>
       </c>
       <c r="BC13">
-        <v>358199.04</v>
+        <v>344001.89</v>
       </c>
       <c r="BD13">
-        <v>244204.56</v>
+        <v>312142.39</v>
       </c>
       <c r="BE13" t="s">
         <v>247</v>
@@ -5244,10 +5244,10 @@
         <v>499996</v>
       </c>
       <c r="BG13">
-        <v>405352.29</v>
+        <v>369990.34</v>
       </c>
       <c r="BH13">
-        <v>333703.43</v>
+        <v>306654.25</v>
       </c>
       <c r="BI13" t="s">
         <v>247</v>
@@ -5256,10 +5256,10 @@
         <v>499996</v>
       </c>
       <c r="BK13">
-        <v>350953.35</v>
+        <v>393230.86</v>
       </c>
       <c r="BL13">
-        <v>281826.83</v>
+        <v>275496.85</v>
       </c>
       <c r="BM13" t="s">
         <v>247</v>
@@ -5268,10 +5268,10 @@
         <v>499996</v>
       </c>
       <c r="BO13">
-        <v>381349.63</v>
+        <v>433499.68</v>
       </c>
       <c r="BP13">
-        <v>315284.82</v>
+        <v>318797.26</v>
       </c>
       <c r="BQ13" t="s">
         <v>247</v>
@@ -5280,10 +5280,10 @@
         <v>499996</v>
       </c>
       <c r="BS13">
-        <v>310093.83</v>
+        <v>338686.25</v>
       </c>
       <c r="BT13">
-        <v>241285.7</v>
+        <v>276231.64</v>
       </c>
       <c r="BU13" t="s">
         <v>247</v>
@@ -5292,10 +5292,10 @@
         <v>199996</v>
       </c>
       <c r="BW13">
-        <v>143095.43</v>
+        <v>174775.93</v>
       </c>
       <c r="BX13">
-        <v>127459.84</v>
+        <v>153161.07</v>
       </c>
       <c r="BY13" t="s">
         <v>247</v>
@@ -5304,10 +5304,10 @@
         <v>199996</v>
       </c>
       <c r="CA13">
-        <v>161298.59</v>
+        <v>174394.11</v>
       </c>
       <c r="CB13">
-        <v>127845.18</v>
+        <v>125854.81</v>
       </c>
       <c r="CC13" t="s">
         <v>247</v>
@@ -5316,10 +5316,10 @@
         <v>199996</v>
       </c>
       <c r="CE13">
-        <v>174397.69</v>
+        <v>156477.01</v>
       </c>
       <c r="CF13">
-        <v>150770.17</v>
+        <v>127502.97</v>
       </c>
       <c r="CG13" t="s">
         <v>247</v>
@@ -5328,10 +5328,10 @@
         <v>199996</v>
       </c>
       <c r="CI13">
-        <v>139564.66</v>
+        <v>179914.73</v>
       </c>
       <c r="CJ13">
-        <v>99987.28999999999</v>
+        <v>161505.21</v>
       </c>
       <c r="CK13" t="s">
         <v>247</v>
@@ -5340,10 +5340,10 @@
         <v>199996</v>
       </c>
       <c r="CM13">
-        <v>145265.8</v>
+        <v>133550.11</v>
       </c>
       <c r="CN13">
-        <v>120872.02</v>
+        <v>101605.54</v>
       </c>
       <c r="CO13" t="s">
         <v>247</v>
@@ -5635,10 +5635,10 @@
         <v>119364</v>
       </c>
       <c r="AQ15">
-        <v>85665.06</v>
+        <v>105565.32</v>
       </c>
       <c r="AR15">
-        <v>61655.81</v>
+        <v>86263.64999999999</v>
       </c>
       <c r="AS15" t="s">
         <v>247</v>
@@ -5647,10 +5647,10 @@
         <v>119364</v>
       </c>
       <c r="AU15">
-        <v>93085.71000000001</v>
+        <v>94167.71000000001</v>
       </c>
       <c r="AV15">
-        <v>75136.57000000001</v>
+        <v>87741.03999999999</v>
       </c>
       <c r="AW15" t="s">
         <v>247</v>
@@ -5659,10 +5659,10 @@
         <v>15616</v>
       </c>
       <c r="AY15">
-        <v>10406.99</v>
+        <v>13530.76</v>
       </c>
       <c r="AZ15">
-        <v>8538.74</v>
+        <v>9437.959999999999</v>
       </c>
       <c r="BA15" t="s">
         <v>247</v>
@@ -5671,10 +5671,10 @@
         <v>15102</v>
       </c>
       <c r="BC15">
-        <v>13462.3</v>
+        <v>10812.7</v>
       </c>
       <c r="BD15">
-        <v>12274.2</v>
+        <v>8218.040000000001</v>
       </c>
       <c r="BE15" t="s">
         <v>247</v>
@@ -5683,10 +5683,10 @@
         <v>15102</v>
       </c>
       <c r="BG15">
-        <v>14105.48</v>
+        <v>11290.65</v>
       </c>
       <c r="BH15">
-        <v>9601.620000000001</v>
+        <v>9613.33</v>
       </c>
       <c r="BI15" t="s">
         <v>247</v>
@@ -5695,10 +5695,10 @@
         <v>15102</v>
       </c>
       <c r="BK15">
-        <v>13427.03</v>
+        <v>12973.39</v>
       </c>
       <c r="BL15">
-        <v>9764.610000000001</v>
+        <v>10652.85</v>
       </c>
       <c r="BM15" t="s">
         <v>247</v>
@@ -5707,10 +5707,10 @@
         <v>15102</v>
       </c>
       <c r="BO15">
-        <v>12278.04</v>
+        <v>11593.94</v>
       </c>
       <c r="BP15">
-        <v>7669.88</v>
+        <v>8950.33</v>
       </c>
       <c r="BQ15" t="s">
         <v>247</v>
@@ -5719,10 +5719,10 @@
         <v>15102</v>
       </c>
       <c r="BS15">
-        <v>12035.04</v>
+        <v>10255.15</v>
       </c>
       <c r="BT15">
-        <v>10149.82</v>
+        <v>9742.4</v>
       </c>
       <c r="BU15" t="s">
         <v>247</v>
@@ -5731,10 +5731,10 @@
         <v>15102</v>
       </c>
       <c r="BW15">
-        <v>11637.15</v>
+        <v>9414.209999999999</v>
       </c>
       <c r="BX15">
-        <v>7693.59</v>
+        <v>6855.83</v>
       </c>
       <c r="BY15" t="s">
         <v>247</v>
@@ -5743,10 +5743,10 @@
         <v>15102</v>
       </c>
       <c r="CA15">
-        <v>12285.35</v>
+        <v>11222.2</v>
       </c>
       <c r="CB15">
-        <v>10362.38</v>
+        <v>8497.440000000001</v>
       </c>
       <c r="CC15" t="s">
         <v>247</v>
@@ -5755,10 +5755,10 @@
         <v>15102</v>
       </c>
       <c r="CE15">
-        <v>13375.01</v>
+        <v>11151.86</v>
       </c>
       <c r="CF15">
-        <v>9053.49</v>
+        <v>9858.440000000001</v>
       </c>
       <c r="CG15" t="s">
         <v>247</v>
@@ -5767,10 +5767,10 @@
         <v>15102</v>
       </c>
       <c r="CI15">
-        <v>12004.98</v>
+        <v>13219.4</v>
       </c>
       <c r="CJ15">
-        <v>7397.82</v>
+        <v>10543.47</v>
       </c>
       <c r="CK15" t="s">
         <v>247</v>
@@ -5779,10 +5779,10 @@
         <v>15102</v>
       </c>
       <c r="CM15">
-        <v>12045.31</v>
+        <v>11697.66</v>
       </c>
       <c r="CN15">
-        <v>11122.55</v>
+        <v>7616.92</v>
       </c>
       <c r="CO15" t="s">
         <v>247</v>
@@ -5904,10 +5904,10 @@
         <v>46666</v>
       </c>
       <c r="AQ16">
-        <v>35796.45</v>
+        <v>38396.45</v>
       </c>
       <c r="AR16">
-        <v>33969.33</v>
+        <v>32093.83</v>
       </c>
       <c r="AS16" t="s">
         <v>247</v>
@@ -5916,10 +5916,10 @@
         <v>46666</v>
       </c>
       <c r="AU16">
-        <v>29570.84</v>
+        <v>33709.35</v>
       </c>
       <c r="AV16">
-        <v>22686.22</v>
+        <v>24124.7</v>
       </c>
       <c r="AW16" t="s">
         <v>247</v>
@@ -5928,10 +5928,10 @@
         <v>46666</v>
       </c>
       <c r="AY16">
-        <v>36746.29</v>
+        <v>43850.96</v>
       </c>
       <c r="AZ16">
-        <v>24033.2</v>
+        <v>33941.38</v>
       </c>
       <c r="BA16" t="s">
         <v>247</v>
@@ -5940,10 +5940,10 @@
         <v>46666</v>
       </c>
       <c r="BC16">
-        <v>34696.52</v>
+        <v>38145.42</v>
       </c>
       <c r="BD16">
-        <v>21144.63</v>
+        <v>30986.19</v>
       </c>
       <c r="BE16" t="s">
         <v>247</v>
@@ -5952,10 +5952,10 @@
         <v>46666</v>
       </c>
       <c r="BG16">
-        <v>28096.25</v>
+        <v>34522.39</v>
       </c>
       <c r="BH16">
-        <v>22746.98</v>
+        <v>26859</v>
       </c>
       <c r="BI16" t="s">
         <v>247</v>
@@ -5964,10 +5964,10 @@
         <v>46666</v>
       </c>
       <c r="BK16">
-        <v>33681.91</v>
+        <v>33626.61</v>
       </c>
       <c r="BL16">
-        <v>25726.25</v>
+        <v>23695.67</v>
       </c>
       <c r="BM16" t="s">
         <v>247</v>
@@ -5976,10 +5976,10 @@
         <v>46666</v>
       </c>
       <c r="BO16">
-        <v>29060.47</v>
+        <v>44332.7</v>
       </c>
       <c r="BP16">
-        <v>27254.08</v>
+        <v>40885.55</v>
       </c>
       <c r="BQ16" t="s">
         <v>247</v>
@@ -5988,10 +5988,10 @@
         <v>46666</v>
       </c>
       <c r="BS16">
-        <v>36130.16</v>
+        <v>37518.8</v>
       </c>
       <c r="BT16">
-        <v>27791.51</v>
+        <v>31929.92</v>
       </c>
       <c r="BU16" t="s">
         <v>247</v>
@@ -6000,10 +6000,10 @@
         <v>46666</v>
       </c>
       <c r="BW16">
-        <v>29268.89</v>
+        <v>40244.42</v>
       </c>
       <c r="BX16">
-        <v>24728.17</v>
+        <v>31716.96</v>
       </c>
       <c r="BY16" t="s">
         <v>247</v>
@@ -6012,10 +6012,10 @@
         <v>46666</v>
       </c>
       <c r="CA16">
-        <v>42995.17</v>
+        <v>35876.25</v>
       </c>
       <c r="CB16">
-        <v>37620.29</v>
+        <v>31029.52</v>
       </c>
       <c r="CC16" t="s">
         <v>247</v>
@@ -6024,10 +6024,10 @@
         <v>46666</v>
       </c>
       <c r="CE16">
-        <v>39904.67</v>
+        <v>37731.41</v>
       </c>
       <c r="CF16">
-        <v>28904.89</v>
+        <v>28141.37</v>
       </c>
       <c r="CG16" t="s">
         <v>247</v>
@@ -6036,10 +6036,10 @@
         <v>46666</v>
       </c>
       <c r="CI16">
-        <v>42933.92</v>
+        <v>35618.43</v>
       </c>
       <c r="CJ16">
-        <v>27243.13</v>
+        <v>28228.06</v>
       </c>
       <c r="CK16" t="s">
         <v>247</v>
@@ -6048,10 +6048,10 @@
         <v>46666</v>
       </c>
       <c r="CM16">
-        <v>29659.24</v>
+        <v>38018.89</v>
       </c>
       <c r="CN16">
-        <v>20085.96</v>
+        <v>30776.76</v>
       </c>
       <c r="CO16" t="s">
         <v>247</v>
@@ -6182,10 +6182,10 @@
         <v>60736</v>
       </c>
       <c r="AQ17">
-        <v>45122.77</v>
+        <v>48808.98</v>
       </c>
       <c r="AR17">
-        <v>29953.18</v>
+        <v>39368.76</v>
       </c>
       <c r="AS17" t="s">
         <v>247</v>
@@ -6194,10 +6194,10 @@
         <v>60736</v>
       </c>
       <c r="AU17">
-        <v>57530.48</v>
+        <v>46425.08</v>
       </c>
       <c r="AV17">
-        <v>36299.21</v>
+        <v>34278.18</v>
       </c>
       <c r="AW17" t="s">
         <v>247</v>
@@ -6206,10 +6206,10 @@
         <v>60736</v>
       </c>
       <c r="AY17">
-        <v>40008.19</v>
+        <v>46787.41</v>
       </c>
       <c r="AZ17">
-        <v>37857.27</v>
+        <v>34135.87</v>
       </c>
       <c r="BA17" t="s">
         <v>247</v>
@@ -6218,10 +6218,10 @@
         <v>60736</v>
       </c>
       <c r="BC17">
-        <v>51214.82</v>
+        <v>45989.58</v>
       </c>
       <c r="BD17">
-        <v>44782.83</v>
+        <v>39141.51</v>
       </c>
       <c r="BE17" t="s">
         <v>247</v>
@@ -6230,10 +6230,10 @@
         <v>60736</v>
       </c>
       <c r="BG17">
-        <v>47237.16</v>
+        <v>57699.2</v>
       </c>
       <c r="BH17">
-        <v>36239.29</v>
+        <v>44858.8</v>
       </c>
       <c r="BI17" t="s">
         <v>247</v>
@@ -6242,10 +6242,10 @@
         <v>60736</v>
       </c>
       <c r="BK17">
-        <v>50143.31</v>
+        <v>50936.86</v>
       </c>
       <c r="BL17">
-        <v>43276.97</v>
+        <v>43089.24</v>
       </c>
       <c r="BM17" t="s">
         <v>247</v>
@@ -6254,10 +6254,10 @@
         <v>86787</v>
       </c>
       <c r="BO17">
-        <v>56683.36</v>
+        <v>64853.6</v>
       </c>
       <c r="BP17">
-        <v>39851.91</v>
+        <v>50265.84</v>
       </c>
       <c r="BQ17" t="s">
         <v>247</v>
@@ -6266,10 +6266,10 @@
         <v>86787</v>
       </c>
       <c r="BS17">
-        <v>63248.5</v>
+        <v>66574.11</v>
       </c>
       <c r="BT17">
-        <v>43958.43</v>
+        <v>55331.46</v>
       </c>
       <c r="BU17" t="s">
         <v>247</v>
@@ -6278,10 +6278,10 @@
         <v>86787</v>
       </c>
       <c r="BW17">
-        <v>78350.63</v>
+        <v>52072.61</v>
       </c>
       <c r="BX17">
-        <v>69152.63</v>
+        <v>37264.59</v>
       </c>
       <c r="BY17" t="s">
         <v>247</v>
@@ -6290,10 +6290,10 @@
         <v>86787</v>
       </c>
       <c r="CA17">
-        <v>58743.8</v>
+        <v>69175.47</v>
       </c>
       <c r="CB17">
-        <v>52226.98</v>
+        <v>56272.85</v>
       </c>
       <c r="CC17" t="s">
         <v>247</v>
@@ -6302,10 +6302,10 @@
         <v>86787</v>
       </c>
       <c r="CE17">
-        <v>72327.91</v>
+        <v>59256.27</v>
       </c>
       <c r="CF17">
-        <v>46485.7</v>
+        <v>55143.1</v>
       </c>
       <c r="CG17" t="s">
         <v>247</v>
@@ -6314,10 +6314,10 @@
         <v>86787</v>
       </c>
       <c r="CI17">
-        <v>60555.26</v>
+        <v>69066.17999999999</v>
       </c>
       <c r="CJ17">
-        <v>38649.43</v>
+        <v>59703.65</v>
       </c>
       <c r="CK17" t="s">
         <v>247</v>
@@ -6326,10 +6326,10 @@
         <v>86787</v>
       </c>
       <c r="CM17">
-        <v>75350.36</v>
+        <v>64188.73</v>
       </c>
       <c r="CN17">
-        <v>54936.09</v>
+        <v>40970.7</v>
       </c>
       <c r="CO17" t="s">
         <v>247</v>
@@ -6460,10 +6460,10 @@
         <v>60000</v>
       </c>
       <c r="AQ18">
-        <v>48885.73</v>
+        <v>50841.37</v>
       </c>
       <c r="AR18">
-        <v>33374.32</v>
+        <v>45871.08</v>
       </c>
       <c r="AS18" t="s">
         <v>247</v>
@@ -6472,10 +6472,10 @@
         <v>60000</v>
       </c>
       <c r="AU18">
-        <v>46904.18</v>
+        <v>51804.92</v>
       </c>
       <c r="AV18">
-        <v>32996.02</v>
+        <v>40731.64</v>
       </c>
       <c r="AW18" t="s">
         <v>247</v>
@@ -6484,10 +6484,10 @@
         <v>60000</v>
       </c>
       <c r="AY18">
-        <v>45507.33</v>
+        <v>49173.07</v>
       </c>
       <c r="AZ18">
-        <v>29308.11</v>
+        <v>37922.63</v>
       </c>
       <c r="BA18" t="s">
         <v>247</v>
@@ -6496,10 +6496,10 @@
         <v>60000</v>
       </c>
       <c r="BC18">
-        <v>36378.51</v>
+        <v>47823.48</v>
       </c>
       <c r="BD18">
-        <v>29403.32</v>
+        <v>45432.31</v>
       </c>
       <c r="BE18" t="s">
         <v>247</v>
@@ -6508,10 +6508,10 @@
         <v>40000</v>
       </c>
       <c r="BG18">
-        <v>24866.32</v>
+        <v>27314.29</v>
       </c>
       <c r="BH18">
-        <v>18874.83</v>
+        <v>20165.77</v>
       </c>
       <c r="BI18" t="s">
         <v>247</v>
@@ -6520,10 +6520,10 @@
         <v>107022</v>
       </c>
       <c r="BK18">
-        <v>76454.36</v>
+        <v>89999.50999999999</v>
       </c>
       <c r="BL18">
-        <v>61562.84</v>
+        <v>59465.42</v>
       </c>
       <c r="BM18" t="s">
         <v>247</v>
@@ -6532,10 +6532,10 @@
         <v>107022</v>
       </c>
       <c r="BO18">
-        <v>92967.02</v>
+        <v>77480.19</v>
       </c>
       <c r="BP18">
-        <v>69110.47</v>
+        <v>65168.69</v>
       </c>
       <c r="BQ18" t="s">
         <v>247</v>
@@ -6544,10 +6544,10 @@
         <v>107022</v>
       </c>
       <c r="BS18">
-        <v>99655.67999999999</v>
+        <v>96285.98</v>
       </c>
       <c r="BT18">
-        <v>70871.02</v>
+        <v>72742.49000000001</v>
       </c>
       <c r="BU18" t="s">
         <v>247</v>
@@ -6556,10 +6556,10 @@
         <v>107022</v>
       </c>
       <c r="BW18">
-        <v>88772.38</v>
+        <v>88054.33</v>
       </c>
       <c r="BX18">
-        <v>57656</v>
+        <v>77485.48</v>
       </c>
       <c r="BY18" t="s">
         <v>247</v>
@@ -6568,10 +6568,10 @@
         <v>107022</v>
       </c>
       <c r="CA18">
-        <v>68786.02</v>
+        <v>93904.72</v>
       </c>
       <c r="CB18">
-        <v>56251.11</v>
+        <v>69986.59</v>
       </c>
       <c r="CC18" t="s">
         <v>247</v>
@@ -6580,10 +6580,10 @@
         <v>107022</v>
       </c>
       <c r="CE18">
-        <v>90642.85000000001</v>
+        <v>88289.08</v>
       </c>
       <c r="CF18">
-        <v>85225.83</v>
+        <v>72244.67</v>
       </c>
       <c r="CG18" t="s">
         <v>247</v>
@@ -6592,10 +6592,10 @@
         <v>107022</v>
       </c>
       <c r="CI18">
-        <v>73827.57000000001</v>
+        <v>89612.55</v>
       </c>
       <c r="CJ18">
-        <v>65941.74000000001</v>
+        <v>63510.85</v>
       </c>
       <c r="CK18" t="s">
         <v>247</v>
@@ -6604,10 +6604,10 @@
         <v>107022</v>
       </c>
       <c r="CM18">
-        <v>70423.08</v>
+        <v>101670.9</v>
       </c>
       <c r="CN18">
-        <v>54659.75</v>
+        <v>68197.25</v>
       </c>
       <c r="CO18" t="s">
         <v>247</v>
@@ -6732,10 +6732,10 @@
         <v>2173</v>
       </c>
       <c r="AQ19">
-        <v>1384.08</v>
+        <v>2064.35</v>
       </c>
       <c r="AR19">
-        <v>854.75</v>
+        <v>1690.09</v>
       </c>
       <c r="AS19" t="s">
         <v>247</v>
@@ -6744,10 +6744,10 @@
         <v>2173</v>
       </c>
       <c r="AU19">
-        <v>1714.43</v>
+        <v>1897.11</v>
       </c>
       <c r="AV19">
-        <v>1372.98</v>
+        <v>1473.79</v>
       </c>
       <c r="AW19" t="s">
         <v>247</v>
@@ -6756,10 +6756,10 @@
         <v>2173</v>
       </c>
       <c r="AY19">
-        <v>1467.16</v>
+        <v>1939.62</v>
       </c>
       <c r="AZ19">
-        <v>1018.09</v>
+        <v>1706.33</v>
       </c>
       <c r="BA19" t="s">
         <v>247</v>
@@ -6768,10 +6768,10 @@
         <v>2173</v>
       </c>
       <c r="BC19">
-        <v>1751.28</v>
+        <v>2052.08</v>
       </c>
       <c r="BD19">
-        <v>1282.9</v>
+        <v>1785.77</v>
       </c>
       <c r="BE19" t="s">
         <v>247</v>
@@ -6780,10 +6780,10 @@
         <v>2173</v>
       </c>
       <c r="BG19">
-        <v>1522.5</v>
+        <v>1446.38</v>
       </c>
       <c r="BH19">
-        <v>1059.81</v>
+        <v>1206.01</v>
       </c>
       <c r="BI19" t="s">
         <v>247</v>
@@ -6792,10 +6792,10 @@
         <v>7008</v>
       </c>
       <c r="BK19">
-        <v>5159.82</v>
+        <v>5526.1</v>
       </c>
       <c r="BL19">
-        <v>4389.66</v>
+        <v>4569.97</v>
       </c>
       <c r="BM19" t="s">
         <v>247</v>
@@ -6804,10 +6804,10 @@
         <v>18558</v>
       </c>
       <c r="BO19">
-        <v>12313.47</v>
+        <v>15725.8</v>
       </c>
       <c r="BP19">
-        <v>9401.719999999999</v>
+        <v>13754.33</v>
       </c>
       <c r="BQ19" t="s">
         <v>247</v>
@@ -6816,10 +6816,10 @@
         <v>32261</v>
       </c>
       <c r="BS19">
-        <v>20072.71</v>
+        <v>28783.58</v>
       </c>
       <c r="BT19">
-        <v>13218.88</v>
+        <v>20310.27</v>
       </c>
       <c r="BU19" t="s">
         <v>247</v>
@@ -6828,10 +6828,10 @@
         <v>32261</v>
       </c>
       <c r="BW19">
-        <v>20418.48</v>
+        <v>25199.56</v>
       </c>
       <c r="BX19">
-        <v>14716.83</v>
+        <v>21648.06</v>
       </c>
       <c r="BY19" t="s">
         <v>247</v>
@@ -6840,10 +6840,10 @@
         <v>32261</v>
       </c>
       <c r="CA19">
-        <v>29324.08</v>
+        <v>28696.74</v>
       </c>
       <c r="CB19">
-        <v>18632.31</v>
+        <v>20679.26</v>
       </c>
       <c r="CC19" t="s">
         <v>247</v>
@@ -6852,10 +6852,10 @@
         <v>32261</v>
       </c>
       <c r="CE19">
-        <v>19848.91</v>
+        <v>27693.96</v>
       </c>
       <c r="CF19">
-        <v>12561.19</v>
+        <v>23338.97</v>
       </c>
       <c r="CG19" t="s">
         <v>247</v>
@@ -6864,10 +6864,10 @@
         <v>32261</v>
       </c>
       <c r="CI19">
-        <v>26302.77</v>
+        <v>25684.8</v>
       </c>
       <c r="CJ19">
-        <v>17874.39</v>
+        <v>19796.98</v>
       </c>
       <c r="CK19" t="s">
         <v>247</v>
@@ -6876,10 +6876,10 @@
         <v>32261</v>
       </c>
       <c r="CM19">
-        <v>26720.16</v>
+        <v>24578.98</v>
       </c>
       <c r="CN19">
-        <v>16451.32</v>
+        <v>19374.19</v>
       </c>
       <c r="CO19" t="s">
         <v>247</v>
@@ -7004,10 +7004,10 @@
         <v>1115129</v>
       </c>
       <c r="AQ20">
-        <v>678007.85</v>
+        <v>965084.9300000001</v>
       </c>
       <c r="AR20">
-        <v>509121.27</v>
+        <v>757518.02</v>
       </c>
       <c r="AS20" t="s">
         <v>247</v>
@@ -7016,10 +7016,10 @@
         <v>1115129</v>
       </c>
       <c r="AU20">
-        <v>894462.27</v>
+        <v>876860.1</v>
       </c>
       <c r="AV20">
-        <v>803471.37</v>
+        <v>816277.35</v>
       </c>
       <c r="AW20" t="s">
         <v>247</v>
@@ -7028,10 +7028,10 @@
         <v>1115129</v>
       </c>
       <c r="AY20">
-        <v>868485.9300000001</v>
+        <v>896023.1800000001</v>
       </c>
       <c r="AZ20">
-        <v>623088.15</v>
+        <v>674610.67</v>
       </c>
       <c r="BA20" t="s">
         <v>247</v>
@@ -7040,10 +7040,10 @@
         <v>1115129</v>
       </c>
       <c r="BC20">
-        <v>961707.95</v>
+        <v>919181.17</v>
       </c>
       <c r="BD20">
-        <v>721148.88</v>
+        <v>828914.4300000001</v>
       </c>
       <c r="BE20" t="s">
         <v>247</v>
@@ -7052,10 +7052,10 @@
         <v>1115129</v>
       </c>
       <c r="BG20">
-        <v>755871.85</v>
+        <v>867492.78</v>
       </c>
       <c r="BH20">
-        <v>541495.2</v>
+        <v>576385.0699999999</v>
       </c>
       <c r="BI20" t="s">
         <v>247</v>
@@ -7064,10 +7064,10 @@
         <v>1115129</v>
       </c>
       <c r="BK20">
-        <v>733349.22</v>
+        <v>759530.72</v>
       </c>
       <c r="BL20">
-        <v>505955.01</v>
+        <v>527754.48</v>
       </c>
       <c r="BM20" t="s">
         <v>247</v>
@@ -7076,10 +7076,10 @@
         <v>1115129</v>
       </c>
       <c r="BO20">
-        <v>891135.8100000001</v>
+        <v>917199.62</v>
       </c>
       <c r="BP20">
-        <v>675898.27</v>
+        <v>791477.7</v>
       </c>
       <c r="BQ20" t="s">
         <v>247</v>
@@ -7088,10 +7088,10 @@
         <v>1115129</v>
       </c>
       <c r="BS20">
-        <v>1003668.31</v>
+        <v>948375.71</v>
       </c>
       <c r="BT20">
-        <v>808275.88</v>
+        <v>818971.53</v>
       </c>
       <c r="BU20" t="s">
         <v>444</v>
@@ -7100,10 +7100,10 @@
         <v>1107189</v>
       </c>
       <c r="BW20">
-        <v>995605.1800000001</v>
+        <v>936321.9</v>
       </c>
       <c r="BX20">
-        <v>932491.47</v>
+        <v>686347.0699999999</v>
       </c>
       <c r="BY20" t="s">
         <v>247</v>
@@ -7112,10 +7112,10 @@
         <v>1296449</v>
       </c>
       <c r="CA20">
-        <v>1163423.52</v>
+        <v>1134036.86</v>
       </c>
       <c r="CB20">
-        <v>1023251.06</v>
+        <v>742046.95</v>
       </c>
       <c r="CC20" t="s">
         <v>247</v>
@@ -7124,10 +7124,10 @@
         <v>1296449</v>
       </c>
       <c r="CE20">
-        <v>833970.47</v>
+        <v>974239.8</v>
       </c>
       <c r="CF20">
-        <v>626059.4399999999</v>
+        <v>684982.59</v>
       </c>
       <c r="CG20" t="s">
         <v>247</v>
@@ -7136,10 +7136,10 @@
         <v>1296449</v>
       </c>
       <c r="CI20">
-        <v>1173436.07</v>
+        <v>855598.59</v>
       </c>
       <c r="CJ20">
-        <v>1032916.19</v>
+        <v>705997.3199999999</v>
       </c>
       <c r="CK20" t="s">
         <v>247</v>
@@ -7148,10 +7148,10 @@
         <v>1296449</v>
       </c>
       <c r="CM20">
-        <v>910194.92</v>
+        <v>973403.79</v>
       </c>
       <c r="CN20">
-        <v>803973.25</v>
+        <v>841661.37</v>
       </c>
       <c r="CO20" t="s">
         <v>247</v>
@@ -7276,10 +7276,10 @@
         <v>9369097</v>
       </c>
       <c r="AQ21">
-        <v>7020770.53</v>
+        <v>7720640.43</v>
       </c>
       <c r="AR21">
-        <v>4668397.4</v>
+        <v>5735391.61</v>
       </c>
       <c r="AS21" t="s">
         <v>247</v>
@@ -7288,10 +7288,10 @@
         <v>9369097</v>
       </c>
       <c r="AU21">
-        <v>6899511.67</v>
+        <v>6995240.05</v>
       </c>
       <c r="AV21">
-        <v>5386614.05</v>
+        <v>5083390.58</v>
       </c>
       <c r="AW21" t="s">
         <v>247</v>
@@ -7300,10 +7300,10 @@
         <v>9369097</v>
       </c>
       <c r="AY21">
-        <v>7113525.55</v>
+        <v>6825500.74</v>
       </c>
       <c r="AZ21">
-        <v>4682654.91</v>
+        <v>4506575.75</v>
       </c>
       <c r="BA21" t="s">
         <v>247</v>
@@ -7312,10 +7312,10 @@
         <v>9369097</v>
       </c>
       <c r="BC21">
-        <v>7840731.04</v>
+        <v>7296176.35</v>
       </c>
       <c r="BD21">
-        <v>6123540.82</v>
+        <v>6748111.67</v>
       </c>
       <c r="BE21" t="s">
         <v>247</v>
@@ -7324,10 +7324,10 @@
         <v>9369097</v>
       </c>
       <c r="BG21">
-        <v>6779446.51</v>
+        <v>7284294.49</v>
       </c>
       <c r="BH21">
-        <v>4800333.01</v>
+        <v>5998621.02</v>
       </c>
       <c r="BI21" t="s">
         <v>247</v>
@@ -7336,10 +7336,10 @@
         <v>9369097</v>
       </c>
       <c r="BK21">
-        <v>7018588.69</v>
+        <v>6277848.48</v>
       </c>
       <c r="BL21">
-        <v>6396006.02</v>
+        <v>4341919.17</v>
       </c>
       <c r="BM21" t="s">
         <v>436</v>
@@ -7348,10 +7348,10 @@
         <v>9369097</v>
       </c>
       <c r="BO21">
-        <v>8634851.42</v>
+        <v>7846864.59</v>
       </c>
       <c r="BP21">
-        <v>6041328.49</v>
+        <v>6581975.36</v>
       </c>
       <c r="BQ21" t="s">
         <v>436</v>
@@ -7360,10 +7360,10 @@
         <v>4684548.5</v>
       </c>
       <c r="BS21">
-        <v>4087611.44</v>
+        <v>4234610.57</v>
       </c>
       <c r="BT21">
-        <v>3609661.51</v>
+        <v>3196918.73</v>
       </c>
       <c r="BU21" t="s">
         <v>445</v>
@@ -7372,10 +7372,10 @@
         <v>1235601</v>
       </c>
       <c r="BW21">
-        <v>845739.6</v>
+        <v>1046389.45</v>
       </c>
       <c r="BX21">
-        <v>733030.83</v>
+        <v>920376.4399999999</v>
       </c>
       <c r="BY21" t="s">
         <v>247</v>
@@ -7384,10 +7384,10 @@
         <v>1235601</v>
       </c>
       <c r="CA21">
-        <v>959223.5</v>
+        <v>1173820.95</v>
       </c>
       <c r="CB21">
-        <v>679239.74</v>
+        <v>872108.67</v>
       </c>
       <c r="CC21" t="s">
         <v>247</v>
@@ -7396,10 +7396,10 @@
         <v>1235601</v>
       </c>
       <c r="CE21">
-        <v>867111.5</v>
+        <v>794858.23</v>
       </c>
       <c r="CF21">
-        <v>765158.3100000001</v>
+        <v>705404.39</v>
       </c>
       <c r="CG21" t="s">
         <v>247</v>
@@ -7408,10 +7408,10 @@
         <v>1235601</v>
       </c>
       <c r="CI21">
-        <v>1067284.03</v>
+        <v>928620.77</v>
       </c>
       <c r="CJ21">
-        <v>957003.11</v>
+        <v>826995.37</v>
       </c>
       <c r="CK21" t="s">
         <v>247</v>
@@ -7420,10 +7420,10 @@
         <v>1235601</v>
       </c>
       <c r="CM21">
-        <v>966345.75</v>
+        <v>905390.37</v>
       </c>
       <c r="CN21">
-        <v>591773.4399999999</v>
+        <v>711068.09</v>
       </c>
       <c r="CO21" t="s">
         <v>247</v>
@@ -7554,10 +7554,10 @@
         <v>10000</v>
       </c>
       <c r="AQ22">
-        <v>8744.07</v>
+        <v>7340.24</v>
       </c>
       <c r="AR22">
-        <v>5642.06</v>
+        <v>5775.66</v>
       </c>
       <c r="AS22" t="s">
         <v>247</v>
@@ -7566,10 +7566,10 @@
         <v>10000</v>
       </c>
       <c r="AU22">
-        <v>6038.25</v>
+        <v>8581.09</v>
       </c>
       <c r="AV22">
-        <v>5291.58</v>
+        <v>7969.02</v>
       </c>
       <c r="AW22" t="s">
         <v>247</v>
@@ -7578,10 +7578,10 @@
         <v>10000</v>
       </c>
       <c r="AY22">
-        <v>7143.55</v>
+        <v>7271.68</v>
       </c>
       <c r="AZ22">
-        <v>4461.94</v>
+        <v>5294.8</v>
       </c>
       <c r="BA22" t="s">
         <v>247</v>
@@ -7590,10 +7590,10 @@
         <v>10000</v>
       </c>
       <c r="BC22">
-        <v>6869.63</v>
+        <v>7590.8</v>
       </c>
       <c r="BD22">
-        <v>5580.03</v>
+        <v>5696.72</v>
       </c>
       <c r="BE22" t="s">
         <v>247</v>
@@ -7602,10 +7602,10 @@
         <v>10000</v>
       </c>
       <c r="BG22">
-        <v>9425.629999999999</v>
+        <v>6877.06</v>
       </c>
       <c r="BH22">
-        <v>8732.43</v>
+        <v>5654.66</v>
       </c>
       <c r="BI22" t="s">
         <v>247</v>
@@ -7614,10 +7614,10 @@
         <v>21680</v>
       </c>
       <c r="BK22">
-        <v>17358.4</v>
+        <v>15544.25</v>
       </c>
       <c r="BL22">
-        <v>16280.25</v>
+        <v>11877.32</v>
       </c>
       <c r="BM22" t="s">
         <v>247</v>
@@ -7626,10 +7626,10 @@
         <v>11680</v>
       </c>
       <c r="BO22">
-        <v>9711.530000000001</v>
+        <v>9549.67</v>
       </c>
       <c r="BP22">
-        <v>6208.61</v>
+        <v>7445.67</v>
       </c>
       <c r="BQ22" t="s">
         <v>247</v>
@@ -7638,10 +7638,10 @@
         <v>11680</v>
       </c>
       <c r="BS22">
-        <v>10373.39</v>
+        <v>10054.82</v>
       </c>
       <c r="BT22">
-        <v>8223.139999999999</v>
+        <v>9204.219999999999</v>
       </c>
       <c r="BU22" t="s">
         <v>247</v>
@@ -7650,10 +7650,10 @@
         <v>11680</v>
       </c>
       <c r="BW22">
-        <v>9353.98</v>
+        <v>9493.9</v>
       </c>
       <c r="BX22">
-        <v>5716.52</v>
+        <v>7671.16</v>
       </c>
       <c r="BY22" t="s">
         <v>247</v>
@@ -7662,10 +7662,10 @@
         <v>11680</v>
       </c>
       <c r="CA22">
-        <v>8665.43</v>
+        <v>9871.85</v>
       </c>
       <c r="CB22">
-        <v>8137.1</v>
+        <v>6714.15</v>
       </c>
       <c r="CC22" t="s">
         <v>247</v>
@@ -7674,10 +7674,10 @@
         <v>11680</v>
       </c>
       <c r="CE22">
-        <v>8944.84</v>
+        <v>8745.9</v>
       </c>
       <c r="CF22">
-        <v>6883.84</v>
+        <v>7868.07</v>
       </c>
       <c r="CG22" t="s">
         <v>247</v>
@@ -7686,10 +7686,10 @@
         <v>11680</v>
       </c>
       <c r="CI22">
-        <v>9541.129999999999</v>
+        <v>8891.200000000001</v>
       </c>
       <c r="CJ22">
-        <v>7399.18</v>
+        <v>5973.81</v>
       </c>
       <c r="CK22" t="s">
         <v>247</v>
@@ -7698,10 +7698,10 @@
         <v>11680</v>
       </c>
       <c r="CM22">
-        <v>8160.62</v>
+        <v>8415.940000000001</v>
       </c>
       <c r="CN22">
-        <v>6721.9</v>
+        <v>6974.98</v>
       </c>
       <c r="CO22" t="s">
         <v>247</v>
@@ -7817,10 +7817,10 @@
         <v>15411067</v>
       </c>
       <c r="AQ23">
-        <v>14183745.3</v>
+        <v>12908358.52</v>
       </c>
       <c r="AR23">
-        <v>11427156.98</v>
+        <v>8505278.189999999</v>
       </c>
       <c r="AS23" t="s">
         <v>247</v>
@@ -7829,10 +7829,10 @@
         <v>15411067</v>
       </c>
       <c r="AU23">
-        <v>10646284.06</v>
+        <v>11888567.3</v>
       </c>
       <c r="AV23">
-        <v>9430417.289999999</v>
+        <v>9952940.630000001</v>
       </c>
       <c r="AW23" t="s">
         <v>247</v>
@@ -7841,10 +7841,10 @@
         <v>15411067</v>
       </c>
       <c r="AY23">
-        <v>14045624.82</v>
+        <v>12525335.75</v>
       </c>
       <c r="AZ23">
-        <v>9404435.85</v>
+        <v>11461588.97</v>
       </c>
       <c r="BA23" t="s">
         <v>247</v>
@@ -7853,10 +7853,10 @@
         <v>15411067</v>
       </c>
       <c r="BC23">
-        <v>13221431.37</v>
+        <v>11194599.34</v>
       </c>
       <c r="BD23">
-        <v>12439608.28</v>
+        <v>8763583.99</v>
       </c>
       <c r="BE23" t="s">
         <v>247</v>
@@ -7865,10 +7865,10 @@
         <v>15411067</v>
       </c>
       <c r="BG23">
-        <v>12345474.97</v>
+        <v>10834126.3</v>
       </c>
       <c r="BH23">
-        <v>11646340.77</v>
+        <v>9049344.560000001</v>
       </c>
       <c r="BI23" t="s">
         <v>247</v>
@@ -7877,10 +7877,10 @@
         <v>15411067</v>
       </c>
       <c r="BK23">
-        <v>9803706.960000001</v>
+        <v>12353521.07</v>
       </c>
       <c r="BL23">
-        <v>7461222.89</v>
+        <v>10596694.76</v>
       </c>
       <c r="BM23" t="s">
         <v>247</v>
@@ -7889,10 +7889,10 @@
         <v>15411067</v>
       </c>
       <c r="BO23">
-        <v>11362578.31</v>
+        <v>11405613.71</v>
       </c>
       <c r="BP23">
-        <v>9764404.83</v>
+        <v>7877024.07</v>
       </c>
       <c r="BQ23" t="s">
         <v>247</v>
@@ -7901,10 +7901,10 @@
         <v>15411067</v>
       </c>
       <c r="BS23">
-        <v>10202006.28</v>
+        <v>12215930.35</v>
       </c>
       <c r="BT23">
-        <v>6650498.78</v>
+        <v>11206457.77</v>
       </c>
       <c r="BU23" t="s">
         <v>247</v>
@@ -7913,10 +7913,10 @@
         <v>14255390</v>
       </c>
       <c r="BW23">
-        <v>11262053.51</v>
+        <v>12309773.71</v>
       </c>
       <c r="BX23">
-        <v>9934022.49</v>
+        <v>8429013.109999999</v>
       </c>
       <c r="BY23" t="s">
         <v>448</v>
@@ -7925,10 +7925,10 @@
         <v>6384286</v>
       </c>
       <c r="CA23">
-        <v>4281264.81</v>
+        <v>5015142.32</v>
       </c>
       <c r="CB23">
-        <v>3437262.69</v>
+        <v>3533113.77</v>
       </c>
       <c r="CC23" t="s">
         <v>247</v>
@@ -7937,10 +7937,10 @@
         <v>6384286</v>
       </c>
       <c r="CE23">
-        <v>5432793.31</v>
+        <v>4152374.92</v>
       </c>
       <c r="CF23">
-        <v>3947951.92</v>
+        <v>3700986.2</v>
       </c>
       <c r="CG23" t="s">
         <v>247</v>
@@ -7949,10 +7949,10 @@
         <v>6384286</v>
       </c>
       <c r="CI23">
-        <v>4666129.45</v>
+        <v>5806601.73</v>
       </c>
       <c r="CJ23">
-        <v>3165116.83</v>
+        <v>4708604.23</v>
       </c>
       <c r="CK23" t="s">
         <v>247</v>
@@ -7961,10 +7961,10 @@
         <v>6384286</v>
       </c>
       <c r="CM23">
-        <v>4276040.35</v>
+        <v>5602978.79</v>
       </c>
       <c r="CN23">
-        <v>3803909.87</v>
+        <v>3819210.91</v>
       </c>
       <c r="CO23" t="s">
         <v>247</v>
@@ -8086,10 +8086,10 @@
         <v>868315</v>
       </c>
       <c r="AQ24">
-        <v>529381.9</v>
+        <v>607126.3100000001</v>
       </c>
       <c r="AR24">
-        <v>496052.24</v>
+        <v>527694.97</v>
       </c>
       <c r="AS24" t="s">
         <v>247</v>
@@ -8098,10 +8098,10 @@
         <v>868315</v>
       </c>
       <c r="AU24">
-        <v>601719.3100000001</v>
+        <v>708314.01</v>
       </c>
       <c r="AV24">
-        <v>363303.66</v>
+        <v>490144.89</v>
       </c>
       <c r="AW24" t="s">
         <v>247</v>
@@ -8110,10 +8110,10 @@
         <v>868315</v>
       </c>
       <c r="AY24">
-        <v>751018.71</v>
+        <v>824899.25</v>
       </c>
       <c r="AZ24">
-        <v>542493.2</v>
+        <v>696625.23</v>
       </c>
       <c r="BA24" t="s">
         <v>247</v>
@@ -8122,10 +8122,10 @@
         <v>868315</v>
       </c>
       <c r="BC24">
-        <v>636508.01</v>
+        <v>766243.65</v>
       </c>
       <c r="BD24">
-        <v>396267.86</v>
+        <v>670092.29</v>
       </c>
       <c r="BE24" t="s">
         <v>247</v>
@@ -8134,10 +8134,10 @@
         <v>868315</v>
       </c>
       <c r="BG24">
-        <v>822224.24</v>
+        <v>807703.01</v>
       </c>
       <c r="BH24">
-        <v>595766.33</v>
+        <v>645254.1</v>
       </c>
       <c r="BI24" t="s">
         <v>247</v>
@@ -8146,10 +8146,10 @@
         <v>868315</v>
       </c>
       <c r="BK24">
-        <v>648351.26</v>
+        <v>764839.87</v>
       </c>
       <c r="BL24">
-        <v>525211.3100000001</v>
+        <v>554273.27</v>
       </c>
       <c r="BM24" t="s">
         <v>247</v>
@@ -8158,10 +8158,10 @@
         <v>868315</v>
       </c>
       <c r="BO24">
-        <v>589313.17</v>
+        <v>760517.41</v>
       </c>
       <c r="BP24">
-        <v>475233.85</v>
+        <v>702589.55</v>
       </c>
       <c r="BQ24" t="s">
         <v>247</v>
@@ -8170,10 +8170,10 @@
         <v>868315</v>
       </c>
       <c r="BS24">
-        <v>695428.75</v>
+        <v>749653.34</v>
       </c>
       <c r="BT24">
-        <v>506466.87</v>
+        <v>556186.63</v>
       </c>
       <c r="BU24" t="s">
         <v>446</v>
@@ -8182,10 +8182,10 @@
         <v>974627</v>
       </c>
       <c r="BW24">
-        <v>678967.05</v>
+        <v>717086.21</v>
       </c>
       <c r="BX24">
-        <v>620627.87</v>
+        <v>602841.8199999999</v>
       </c>
       <c r="BY24" t="s">
         <v>449</v>
@@ -8194,10 +8194,10 @@
         <v>435557</v>
       </c>
       <c r="CA24">
-        <v>274023.83</v>
+        <v>357083.43</v>
       </c>
       <c r="CB24">
-        <v>185312.06</v>
+        <v>282974.73</v>
       </c>
       <c r="CC24" t="s">
         <v>247</v>
@@ -8206,10 +8206,10 @@
         <v>435557</v>
       </c>
       <c r="CE24">
-        <v>315178.86</v>
+        <v>305392.98</v>
       </c>
       <c r="CF24">
-        <v>272605.83</v>
+        <v>269904.02</v>
       </c>
       <c r="CG24" t="s">
         <v>247</v>
@@ -8218,10 +8218,10 @@
         <v>435557</v>
       </c>
       <c r="CI24">
-        <v>346308.79</v>
+        <v>336594.54</v>
       </c>
       <c r="CJ24">
-        <v>315598.93</v>
+        <v>230596.66</v>
       </c>
       <c r="CK24" t="s">
         <v>247</v>
@@ -8230,10 +8230,10 @@
         <v>435557</v>
       </c>
       <c r="CM24">
-        <v>364474.78</v>
+        <v>372539.74</v>
       </c>
       <c r="CN24">
-        <v>278816.89</v>
+        <v>302366.65</v>
       </c>
       <c r="CO24" t="s">
         <v>247</v>
@@ -8358,10 +8358,10 @@
         <v>871154</v>
       </c>
       <c r="AQ25">
-        <v>616584.89</v>
+        <v>723034.98</v>
       </c>
       <c r="AR25">
-        <v>467057.65</v>
+        <v>617552.53</v>
       </c>
       <c r="AS25" t="s">
         <v>247</v>
@@ -8370,10 +8370,10 @@
         <v>871154</v>
       </c>
       <c r="AU25">
-        <v>569901.0699999999</v>
+        <v>666673.14</v>
       </c>
       <c r="AV25">
-        <v>538550.25</v>
+        <v>545722.84</v>
       </c>
       <c r="AW25" t="s">
         <v>247</v>
@@ -8382,10 +8382,10 @@
         <v>871154</v>
       </c>
       <c r="AY25">
-        <v>667337.99</v>
+        <v>666567.75</v>
       </c>
       <c r="AZ25">
-        <v>468432.14</v>
+        <v>596827.61</v>
       </c>
       <c r="BA25" t="s">
         <v>247</v>
@@ -8394,10 +8394,10 @@
         <v>871154</v>
       </c>
       <c r="BC25">
-        <v>823928.6800000001</v>
+        <v>666136.04</v>
       </c>
       <c r="BD25">
-        <v>674247.48</v>
+        <v>572955.35</v>
       </c>
       <c r="BE25" t="s">
         <v>247</v>
@@ -8406,10 +8406,10 @@
         <v>871154</v>
       </c>
       <c r="BG25">
-        <v>658431.8199999999</v>
+        <v>627217.83</v>
       </c>
       <c r="BH25">
-        <v>616075.97</v>
+        <v>421913.94</v>
       </c>
       <c r="BI25" t="s">
         <v>247</v>
@@ -8418,10 +8418,10 @@
         <v>871154</v>
       </c>
       <c r="BK25">
-        <v>770263.58</v>
+        <v>643508.38</v>
       </c>
       <c r="BL25">
-        <v>689006.02</v>
+        <v>524416.65</v>
       </c>
       <c r="BM25" t="s">
         <v>247</v>
@@ -8430,10 +8430,10 @@
         <v>871154</v>
       </c>
       <c r="BO25">
-        <v>569475.95</v>
+        <v>597507.05</v>
       </c>
       <c r="BP25">
-        <v>362155.72</v>
+        <v>461347.29</v>
       </c>
       <c r="BQ25" t="s">
         <v>247</v>
@@ -8442,10 +8442,10 @@
         <v>871154</v>
       </c>
       <c r="BS25">
-        <v>692843.49</v>
+        <v>684829.98</v>
       </c>
       <c r="BT25">
-        <v>536584.59</v>
+        <v>587126.04</v>
       </c>
       <c r="BU25" t="s">
         <v>247</v>
@@ -8454,10 +8454,10 @@
         <v>871154</v>
       </c>
       <c r="BW25">
-        <v>594729.12</v>
+        <v>694963.71</v>
       </c>
       <c r="BX25">
-        <v>372755.75</v>
+        <v>538323.1800000001</v>
       </c>
       <c r="BY25" t="s">
         <v>450</v>
@@ -8466,10 +8466,10 @@
         <v>470674</v>
       </c>
       <c r="CA25">
-        <v>408150.01</v>
+        <v>315188.86</v>
       </c>
       <c r="CB25">
-        <v>288117.04</v>
+        <v>296354.15</v>
       </c>
       <c r="CC25" t="s">
         <v>247</v>
@@ -8478,10 +8478,10 @@
         <v>470674</v>
       </c>
       <c r="CE25">
-        <v>410905.28</v>
+        <v>387662.59</v>
       </c>
       <c r="CF25">
-        <v>248613.95</v>
+        <v>269046.14</v>
       </c>
       <c r="CG25" t="s">
         <v>247</v>
@@ -8490,10 +8490,10 @@
         <v>470674</v>
       </c>
       <c r="CI25">
-        <v>380254.52</v>
+        <v>327801.25</v>
       </c>
       <c r="CJ25">
-        <v>350542.35</v>
+        <v>238134.1</v>
       </c>
       <c r="CK25" t="s">
         <v>247</v>
@@ -8502,10 +8502,10 @@
         <v>470674</v>
       </c>
       <c r="CM25">
-        <v>433240.51</v>
+        <v>403045.76</v>
       </c>
       <c r="CN25">
-        <v>319354.69</v>
+        <v>309611.25</v>
       </c>
       <c r="CO25" t="s">
         <v>247</v>
@@ -8788,10 +8788,10 @@
         <v>1117000</v>
       </c>
       <c r="AQ27">
-        <v>781334.85</v>
+        <v>816847.62</v>
       </c>
       <c r="AR27">
-        <v>668000.24</v>
+        <v>692668.4399999999</v>
       </c>
       <c r="AS27" t="s">
         <v>247</v>
@@ -8800,10 +8800,10 @@
         <v>1117000</v>
       </c>
       <c r="AU27">
-        <v>795226.3</v>
+        <v>918844.51</v>
       </c>
       <c r="AV27">
-        <v>507424.65</v>
+        <v>829597.2</v>
       </c>
       <c r="AW27" t="s">
         <v>247</v>
@@ -8812,10 +8812,10 @@
         <v>1117000</v>
       </c>
       <c r="AY27">
-        <v>942473.71</v>
+        <v>1004533.92</v>
       </c>
       <c r="AZ27">
-        <v>844071.2</v>
+        <v>750663.15</v>
       </c>
       <c r="BA27" t="s">
         <v>247</v>
@@ -8824,10 +8824,10 @@
         <v>1117000</v>
       </c>
       <c r="BC27">
-        <v>1040214.81</v>
+        <v>947682.3100000001</v>
       </c>
       <c r="BD27">
-        <v>661929.75</v>
+        <v>778808.1</v>
       </c>
       <c r="BE27" t="s">
         <v>247</v>
@@ -8836,10 +8836,10 @@
         <v>1117000</v>
       </c>
       <c r="BG27">
-        <v>908142.41</v>
+        <v>867332.0699999999</v>
       </c>
       <c r="BH27">
-        <v>612564.92</v>
+        <v>759941.84</v>
       </c>
       <c r="BI27" t="s">
         <v>247</v>
@@ -8848,10 +8848,10 @@
         <v>1117000</v>
       </c>
       <c r="BK27">
-        <v>932212.58</v>
+        <v>769764.3199999999</v>
       </c>
       <c r="BL27">
-        <v>768644.4399999999</v>
+        <v>645457.79</v>
       </c>
       <c r="BM27" t="s">
         <v>247</v>
@@ -8860,10 +8860,10 @@
         <v>1117000</v>
       </c>
       <c r="BO27">
-        <v>874757.84</v>
+        <v>949842.39</v>
       </c>
       <c r="BP27">
-        <v>731519.61</v>
+        <v>902350.27</v>
       </c>
       <c r="BQ27" t="s">
         <v>247</v>
@@ -8872,10 +8872,10 @@
         <v>1117000</v>
       </c>
       <c r="BS27">
-        <v>905629.34</v>
+        <v>1039265.67</v>
       </c>
       <c r="BT27">
-        <v>553556.09</v>
+        <v>626042.04</v>
       </c>
       <c r="BU27" t="s">
         <v>247</v>
@@ -8884,10 +8884,10 @@
         <v>1117000</v>
       </c>
       <c r="BW27">
-        <v>732728.27</v>
+        <v>903391.42</v>
       </c>
       <c r="BX27">
-        <v>654290.4399999999</v>
+        <v>795247.3100000001</v>
       </c>
       <c r="BY27" t="s">
         <v>247</v>
@@ -8896,10 +8896,10 @@
         <v>1117000</v>
       </c>
       <c r="CA27">
-        <v>1055585.25</v>
+        <v>789857.89</v>
       </c>
       <c r="CB27">
-        <v>818380.4300000001</v>
+        <v>562669.02</v>
       </c>
       <c r="CC27" t="s">
         <v>247</v>
@@ -8908,10 +8908,10 @@
         <v>1117000</v>
       </c>
       <c r="CE27">
-        <v>726414.89</v>
+        <v>852161.72</v>
       </c>
       <c r="CF27">
-        <v>490028.13</v>
+        <v>658543.63</v>
       </c>
       <c r="CG27" t="s">
         <v>247</v>
@@ -8920,10 +8920,10 @@
         <v>1117000</v>
       </c>
       <c r="CI27">
-        <v>809736.85</v>
+        <v>801260.13</v>
       </c>
       <c r="CJ27">
-        <v>682849.7</v>
+        <v>572920.95</v>
       </c>
       <c r="CK27" t="s">
         <v>247</v>
@@ -8932,10 +8932,10 @@
         <v>1117000</v>
       </c>
       <c r="CM27">
-        <v>762101.95</v>
+        <v>865505.61</v>
       </c>
       <c r="CN27">
-        <v>633680.95</v>
+        <v>822230.33</v>
       </c>
       <c r="CO27" t="s">
         <v>247</v>
@@ -9224,10 +9224,10 @@
         <v>589978</v>
       </c>
       <c r="AQ29">
-        <v>454276.03</v>
+        <v>552232.22</v>
       </c>
       <c r="AR29">
-        <v>293612.47</v>
+        <v>373699.21</v>
       </c>
       <c r="AS29" t="s">
         <v>247</v>
@@ -9236,10 +9236,10 @@
         <v>589978</v>
       </c>
       <c r="AU29">
-        <v>378509.58</v>
+        <v>427870.34</v>
       </c>
       <c r="AV29">
-        <v>268219.44</v>
+        <v>290062.51</v>
       </c>
       <c r="AW29" t="s">
         <v>247</v>
@@ -9248,10 +9248,10 @@
         <v>589978</v>
       </c>
       <c r="AY29">
-        <v>413099.39</v>
+        <v>523116.52</v>
       </c>
       <c r="AZ29">
-        <v>282880.62</v>
+        <v>412730.49</v>
       </c>
       <c r="BA29" t="s">
         <v>247</v>
@@ -9260,10 +9260,10 @@
         <v>589978</v>
       </c>
       <c r="BC29">
-        <v>424614.15</v>
+        <v>427482.93</v>
       </c>
       <c r="BD29">
-        <v>274673.49</v>
+        <v>300800.09</v>
       </c>
       <c r="BE29" t="s">
         <v>247</v>
@@ -9272,10 +9272,10 @@
         <v>589978</v>
       </c>
       <c r="BG29">
-        <v>496338.6</v>
+        <v>478469.28</v>
       </c>
       <c r="BH29">
-        <v>333545.08</v>
+        <v>326034.04</v>
       </c>
       <c r="BI29" t="s">
         <v>247</v>
@@ -9284,10 +9284,10 @@
         <v>589978</v>
       </c>
       <c r="BK29">
-        <v>549954.09</v>
+        <v>551146.6</v>
       </c>
       <c r="BL29">
-        <v>403826.11</v>
+        <v>388713.29</v>
       </c>
       <c r="BM29" t="s">
         <v>247</v>
@@ -9296,10 +9296,10 @@
         <v>589978</v>
       </c>
       <c r="BO29">
-        <v>377396.23</v>
+        <v>435340.96</v>
       </c>
       <c r="BP29">
-        <v>347665.59</v>
+        <v>296826.89</v>
       </c>
       <c r="BQ29" t="s">
         <v>247</v>
@@ -9308,10 +9308,10 @@
         <v>589978</v>
       </c>
       <c r="BS29">
-        <v>360767.32</v>
+        <v>487915.2</v>
       </c>
       <c r="BT29">
-        <v>307575.18</v>
+        <v>457196.24</v>
       </c>
       <c r="BU29" t="s">
         <v>447</v>
@@ -9320,10 +9320,10 @@
         <v>409499</v>
       </c>
       <c r="BW29">
-        <v>305509.62</v>
+        <v>276089.47</v>
       </c>
       <c r="BX29">
-        <v>268521.86</v>
+        <v>222418.99</v>
       </c>
       <c r="BY29" t="s">
         <v>247</v>
@@ -9332,10 +9332,10 @@
         <v>409499</v>
       </c>
       <c r="CA29">
-        <v>319732.22</v>
+        <v>358251.78</v>
       </c>
       <c r="CB29">
-        <v>195903.18</v>
+        <v>244890.51</v>
       </c>
       <c r="CC29" t="s">
         <v>247</v>
@@ -9344,10 +9344,10 @@
         <v>409499</v>
       </c>
       <c r="CE29">
-        <v>296092.41</v>
+        <v>364388.82</v>
       </c>
       <c r="CF29">
-        <v>207858.89</v>
+        <v>269327.18</v>
       </c>
       <c r="CG29" t="s">
         <v>247</v>
@@ -9356,10 +9356,10 @@
         <v>409499</v>
       </c>
       <c r="CI29">
-        <v>338669.15</v>
+        <v>289223.58</v>
       </c>
       <c r="CJ29">
-        <v>282670.83</v>
+        <v>243008.61</v>
       </c>
       <c r="CK29" t="s">
         <v>247</v>
@@ -9368,10 +9368,10 @@
         <v>409499</v>
       </c>
       <c r="CM29">
-        <v>327866.73</v>
+        <v>365562.27</v>
       </c>
       <c r="CN29">
-        <v>235190.86</v>
+        <v>264479.87</v>
       </c>
       <c r="CO29" t="s">
         <v>247</v>
@@ -9499,10 +9499,10 @@
         <v>15667</v>
       </c>
       <c r="AQ30">
-        <v>9971.6</v>
+        <v>13054.29</v>
       </c>
       <c r="AR30">
-        <v>8514.559999999999</v>
+        <v>9017.1</v>
       </c>
       <c r="AS30" t="s">
         <v>247</v>
@@ -9511,10 +9511,10 @@
         <v>15667</v>
       </c>
       <c r="AU30">
-        <v>9606.620000000001</v>
+        <v>11804.76</v>
       </c>
       <c r="AV30">
-        <v>7483.76</v>
+        <v>7326.18</v>
       </c>
       <c r="AW30" t="s">
         <v>247</v>
@@ -9523,10 +9523,10 @@
         <v>15667</v>
       </c>
       <c r="AY30">
-        <v>13136.84</v>
+        <v>13772.38</v>
       </c>
       <c r="AZ30">
-        <v>8779.4</v>
+        <v>11608.17</v>
       </c>
       <c r="BA30" t="s">
         <v>247</v>
@@ -9535,10 +9535,10 @@
         <v>15667</v>
       </c>
       <c r="BC30">
-        <v>13981.68</v>
+        <v>12083.78</v>
       </c>
       <c r="BD30">
-        <v>12697.04</v>
+        <v>8741.59</v>
       </c>
       <c r="BE30" t="s">
         <v>247</v>
@@ -9547,10 +9547,10 @@
         <v>15667</v>
       </c>
       <c r="BG30">
-        <v>11261.05</v>
+        <v>12059.67</v>
       </c>
       <c r="BH30">
-        <v>7653.53</v>
+        <v>8279.75</v>
       </c>
       <c r="BI30" t="s">
         <v>247</v>
@@ -9559,10 +9559,10 @@
         <v>15667</v>
       </c>
       <c r="BK30">
-        <v>13966.73</v>
+        <v>14610.38</v>
       </c>
       <c r="BL30">
-        <v>12884.68</v>
+        <v>12182.82</v>
       </c>
       <c r="BM30" t="s">
         <v>247</v>
@@ -9571,10 +9571,10 @@
         <v>15667</v>
       </c>
       <c r="BO30">
-        <v>10638.21</v>
+        <v>13280.32</v>
       </c>
       <c r="BP30">
-        <v>6829.64</v>
+        <v>9409.83</v>
       </c>
       <c r="BQ30" t="s">
         <v>247</v>
@@ -9583,10 +9583,10 @@
         <v>15667</v>
       </c>
       <c r="BS30">
-        <v>10459.2</v>
+        <v>10757.13</v>
       </c>
       <c r="BT30">
-        <v>8663.040000000001</v>
+        <v>9527.389999999999</v>
       </c>
       <c r="BU30" t="s">
         <v>247</v>
@@ -9595,10 +9595,10 @@
         <v>15667</v>
       </c>
       <c r="BW30">
-        <v>12313.19</v>
+        <v>10347.11</v>
       </c>
       <c r="BX30">
-        <v>9458.940000000001</v>
+        <v>8661.120000000001</v>
       </c>
       <c r="BY30" t="s">
         <v>247</v>
@@ -9607,10 +9607,10 @@
         <v>15667</v>
       </c>
       <c r="CA30">
-        <v>14645.27</v>
+        <v>14116.97</v>
       </c>
       <c r="CB30">
-        <v>9680.26</v>
+        <v>8946.219999999999</v>
       </c>
       <c r="CC30" t="s">
         <v>247</v>
@@ -9619,10 +9619,10 @@
         <v>15667</v>
       </c>
       <c r="CE30">
-        <v>13066</v>
+        <v>13780.25</v>
       </c>
       <c r="CF30">
-        <v>11626.75</v>
+        <v>10269.05</v>
       </c>
       <c r="CG30" t="s">
         <v>247</v>
@@ -9631,10 +9631,10 @@
         <v>15667</v>
       </c>
       <c r="CI30">
-        <v>12937.26</v>
+        <v>10617.97</v>
       </c>
       <c r="CJ30">
-        <v>8766.02</v>
+        <v>8983.98</v>
       </c>
       <c r="CK30" t="s">
         <v>247</v>
@@ -9643,10 +9643,10 @@
         <v>15667</v>
       </c>
       <c r="CM30">
-        <v>11284.67</v>
+        <v>12468.33</v>
       </c>
       <c r="CN30">
-        <v>8343.59</v>
+        <v>10331.33</v>
       </c>
       <c r="CO30" t="s">
         <v>247</v>
@@ -9768,10 +9768,10 @@
         <v>2365711</v>
       </c>
       <c r="AQ31">
-        <v>1615729.73</v>
+        <v>1671297.75</v>
       </c>
       <c r="AR31">
-        <v>1047360.74</v>
+        <v>1265688.03</v>
       </c>
       <c r="AS31" t="s">
         <v>247</v>
@@ -9780,10 +9780,10 @@
         <v>2365711</v>
       </c>
       <c r="AU31">
-        <v>1596403.83</v>
+        <v>2091937.81</v>
       </c>
       <c r="AV31">
-        <v>1248002.62</v>
+        <v>1778441.52</v>
       </c>
       <c r="AW31" t="s">
         <v>247</v>
@@ -9792,10 +9792,10 @@
         <v>2365711</v>
       </c>
       <c r="AY31">
-        <v>1949213.19</v>
+        <v>1737892.8</v>
       </c>
       <c r="AZ31">
-        <v>1233949.07</v>
+        <v>1193323.52</v>
       </c>
       <c r="BA31" t="s">
         <v>247</v>
@@ -9804,10 +9804,10 @@
         <v>2365711</v>
       </c>
       <c r="BC31">
-        <v>1834512.11</v>
+        <v>1894898.85</v>
       </c>
       <c r="BD31">
-        <v>1220523.24</v>
+        <v>1705941.19</v>
       </c>
       <c r="BE31" t="s">
         <v>247</v>
@@ -9816,10 +9816,10 @@
         <v>2365711</v>
       </c>
       <c r="BG31">
-        <v>1622269.94</v>
+        <v>1671992.64</v>
       </c>
       <c r="BH31">
-        <v>976005.38</v>
+        <v>1067501.77</v>
       </c>
       <c r="BI31" t="s">
         <v>247</v>
@@ -9828,10 +9828,10 @@
         <v>2365711</v>
       </c>
       <c r="BK31">
-        <v>1826420.53</v>
+        <v>1949571.77</v>
       </c>
       <c r="BL31">
-        <v>1561929.09</v>
+        <v>1591985.58</v>
       </c>
       <c r="BM31" t="s">
         <v>247</v>
@@ -9840,10 +9840,10 @@
         <v>2365711</v>
       </c>
       <c r="BO31">
-        <v>1587261.06</v>
+        <v>1954540.82</v>
       </c>
       <c r="BP31">
-        <v>1046561.15</v>
+        <v>1622884.23</v>
       </c>
       <c r="BQ31" t="s">
         <v>247</v>
@@ -9852,10 +9852,10 @@
         <v>2365711</v>
       </c>
       <c r="BS31">
-        <v>1871990.83</v>
+        <v>2068658.62</v>
       </c>
       <c r="BT31">
-        <v>1766463.08</v>
+        <v>1677919.22</v>
       </c>
       <c r="BU31" t="s">
         <v>247</v>
@@ -9864,10 +9864,10 @@
         <v>2365711</v>
       </c>
       <c r="BW31">
-        <v>2087549.76</v>
+        <v>1462660.31</v>
       </c>
       <c r="BX31">
-        <v>1561947.87</v>
+        <v>1327380.06</v>
       </c>
       <c r="BY31" t="s">
         <v>247</v>
@@ -9876,10 +9876,10 @@
         <v>120301</v>
       </c>
       <c r="CA31">
-        <v>94847.62</v>
+        <v>108384.07</v>
       </c>
       <c r="CB31">
-        <v>70043.64999999999</v>
+        <v>81296.82000000001</v>
       </c>
       <c r="CC31" t="s">
         <v>247</v>
@@ -9888,10 +9888,10 @@
         <v>120301</v>
       </c>
       <c r="CE31">
-        <v>80268.49000000001</v>
+        <v>89838.42</v>
       </c>
       <c r="CF31">
-        <v>63977.44</v>
+        <v>58780.87</v>
       </c>
       <c r="CG31" t="s">
         <v>247</v>
@@ -9900,10 +9900,10 @@
         <v>120301</v>
       </c>
       <c r="CI31">
-        <v>78226.55</v>
+        <v>96675.78</v>
       </c>
       <c r="CJ31">
-        <v>73730.08</v>
+        <v>82742.99000000001</v>
       </c>
       <c r="CK31" t="s">
         <v>247</v>
@@ -9912,10 +9912,10 @@
         <v>120301</v>
       </c>
       <c r="CM31">
-        <v>84439.09</v>
+        <v>95365.83</v>
       </c>
       <c r="CN31">
-        <v>71653.7</v>
+        <v>67331.33</v>
       </c>
       <c r="CO31" t="s">
         <v>247</v>
@@ -10040,10 +10040,10 @@
         <v>8184563</v>
       </c>
       <c r="AQ32">
-        <v>6341396.62</v>
+        <v>6615855.25</v>
       </c>
       <c r="AR32">
-        <v>5586566.55</v>
+        <v>6108763.2</v>
       </c>
       <c r="AS32" t="s">
         <v>247</v>
@@ -10052,10 +10052,10 @@
         <v>8184563</v>
       </c>
       <c r="AU32">
-        <v>5313970.57</v>
+        <v>6761165.69</v>
       </c>
       <c r="AV32">
-        <v>3987869.37</v>
+        <v>5763872.52</v>
       </c>
       <c r="AW32" t="s">
         <v>247</v>
@@ -10064,10 +10064,10 @@
         <v>8184563</v>
       </c>
       <c r="AY32">
-        <v>6687180.88</v>
+        <v>7147838.8</v>
       </c>
       <c r="AZ32">
-        <v>5213943.82</v>
+        <v>6240499</v>
       </c>
       <c r="BA32" t="s">
         <v>247</v>
@@ -10076,10 +10076,10 @@
         <v>8184563</v>
       </c>
       <c r="BC32">
-        <v>5274882.42</v>
+        <v>6830918.01</v>
       </c>
       <c r="BD32">
-        <v>4250803.24</v>
+        <v>4408950.9</v>
       </c>
       <c r="BE32" t="s">
         <v>247</v>
@@ -10088,10 +10088,10 @@
         <v>8184563</v>
       </c>
       <c r="BG32">
-        <v>7433613.72</v>
+        <v>6541511.81</v>
       </c>
       <c r="BH32">
-        <v>5230265.88</v>
+        <v>4670810.34</v>
       </c>
       <c r="BI32" t="s">
         <v>247</v>
@@ -10100,10 +10100,10 @@
         <v>8184563</v>
       </c>
       <c r="BK32">
-        <v>5990747.77</v>
+        <v>7447102</v>
       </c>
       <c r="BL32">
-        <v>3927580.1</v>
+        <v>5782375.98</v>
       </c>
       <c r="BM32" t="s">
         <v>438</v>
@@ -10112,10 +10112,10 @@
         <v>8184563</v>
       </c>
       <c r="BO32">
-        <v>5170484.14</v>
+        <v>6507631.85</v>
       </c>
       <c r="BP32">
-        <v>4546115.77</v>
+        <v>5192464.62</v>
       </c>
       <c r="BQ32" t="s">
         <v>443</v>
@@ -10124,10 +10124,10 @@
         <v>4092281.5</v>
       </c>
       <c r="BS32">
-        <v>3651919.51</v>
+        <v>3209861.57</v>
       </c>
       <c r="BT32">
-        <v>2719208.61</v>
+        <v>2525176.18</v>
       </c>
       <c r="BU32" t="s">
         <v>247</v>
@@ -10136,10 +10136,10 @@
         <v>122625</v>
       </c>
       <c r="BW32">
-        <v>107997.24</v>
+        <v>107691.44</v>
       </c>
       <c r="BX32">
-        <v>68603.28</v>
+        <v>90901.75</v>
       </c>
       <c r="BY32" t="s">
         <v>247</v>
@@ -10148,10 +10148,10 @@
         <v>122625</v>
       </c>
       <c r="CA32">
-        <v>91411.38</v>
+        <v>88152.24000000001</v>
       </c>
       <c r="CB32">
-        <v>75428.56</v>
+        <v>64947.87</v>
       </c>
       <c r="CC32" t="s">
         <v>247</v>
@@ -10160,10 +10160,10 @@
         <v>122625</v>
       </c>
       <c r="CE32">
-        <v>89361.21000000001</v>
+        <v>83379.8</v>
       </c>
       <c r="CF32">
-        <v>69435.64999999999</v>
+        <v>67292.16</v>
       </c>
       <c r="CG32" t="s">
         <v>247</v>
@@ -10172,10 +10172,10 @@
         <v>122625</v>
       </c>
       <c r="CI32">
-        <v>75519.00999999999</v>
+        <v>98585.03</v>
       </c>
       <c r="CJ32">
-        <v>57674.45</v>
+        <v>87662.23</v>
       </c>
       <c r="CK32" t="s">
         <v>247</v>
@@ -10184,10 +10184,10 @@
         <v>122625</v>
       </c>
       <c r="CM32">
-        <v>101530.49</v>
+        <v>100856.34</v>
       </c>
       <c r="CN32">
-        <v>76581.62</v>
+        <v>82126.78999999999</v>
       </c>
       <c r="CO32" t="s">
         <v>247</v>
@@ -10309,10 +10309,10 @@
         <v>5130561</v>
       </c>
       <c r="AQ33">
-        <v>3578945.76</v>
+        <v>4299706.21</v>
       </c>
       <c r="AR33">
-        <v>2493634.27</v>
+        <v>3587449.31</v>
       </c>
       <c r="AS33" t="s">
         <v>247</v>
@@ -10321,10 +10321,10 @@
         <v>5130561</v>
       </c>
       <c r="AU33">
-        <v>4152013.72</v>
+        <v>4250659.76</v>
       </c>
       <c r="AV33">
-        <v>2581306.84</v>
+        <v>3125792.21</v>
       </c>
       <c r="AW33" t="s">
         <v>247</v>
@@ -10333,10 +10333,10 @@
         <v>5130561</v>
       </c>
       <c r="AY33">
-        <v>3282876.68</v>
+        <v>4220536.92</v>
       </c>
       <c r="AZ33">
-        <v>2715550.52</v>
+        <v>2793115.68</v>
       </c>
       <c r="BA33" t="s">
         <v>247</v>
@@ -10345,10 +10345,10 @@
         <v>5130561</v>
       </c>
       <c r="BC33">
-        <v>3987634.72</v>
+        <v>3766904.33</v>
       </c>
       <c r="BD33">
-        <v>3362278.63</v>
+        <v>3561798.42</v>
       </c>
       <c r="BE33" t="s">
         <v>247</v>
@@ -10357,10 +10357,10 @@
         <v>5130561</v>
       </c>
       <c r="BG33">
-        <v>3233438.76</v>
+        <v>4228396.83</v>
       </c>
       <c r="BH33">
-        <v>2038507.21</v>
+        <v>3235433.07</v>
       </c>
       <c r="BI33" t="s">
         <v>247</v>
@@ -10369,10 +10369,10 @@
         <v>5130561</v>
       </c>
       <c r="BK33">
-        <v>4131519.48</v>
+        <v>4874032.95</v>
       </c>
       <c r="BL33">
-        <v>2763015.95</v>
+        <v>3724002.7</v>
       </c>
       <c r="BM33" t="s">
         <v>247</v>
@@ -10381,10 +10381,10 @@
         <v>5130561</v>
       </c>
       <c r="BO33">
-        <v>3968171.97</v>
+        <v>4173087.6</v>
       </c>
       <c r="BP33">
-        <v>2920502.37</v>
+        <v>3000154.46</v>
       </c>
       <c r="BQ33" t="s">
         <v>247</v>
@@ -10393,10 +10393,10 @@
         <v>3466108</v>
       </c>
       <c r="BS33">
-        <v>2827458.49</v>
+        <v>2853256.9</v>
       </c>
       <c r="BT33">
-        <v>1812545.97</v>
+        <v>2482192.56</v>
       </c>
       <c r="BU33" t="s">
         <v>247</v>
@@ -10405,10 +10405,10 @@
         <v>3466108</v>
       </c>
       <c r="BW33">
-        <v>2851597.5</v>
+        <v>3181875.47</v>
       </c>
       <c r="BX33">
-        <v>2412181.92</v>
+        <v>2053715.42</v>
       </c>
       <c r="BY33" t="s">
         <v>247</v>
@@ -10417,10 +10417,10 @@
         <v>3466108</v>
       </c>
       <c r="CA33">
-        <v>2882869.6</v>
+        <v>2936944.55</v>
       </c>
       <c r="CB33">
-        <v>1885399.65</v>
+        <v>2423415.93</v>
       </c>
       <c r="CC33" t="s">
         <v>247</v>
@@ -10429,10 +10429,10 @@
         <v>3466108</v>
       </c>
       <c r="CE33">
-        <v>2832729.6</v>
+        <v>2809024.91</v>
       </c>
       <c r="CF33">
-        <v>2585602.09</v>
+        <v>1949246.31</v>
       </c>
       <c r="CG33" t="s">
         <v>247</v>
@@ -10441,10 +10441,10 @@
         <v>3466108</v>
       </c>
       <c r="CI33">
-        <v>2595345.8</v>
+        <v>2815181.5</v>
       </c>
       <c r="CJ33">
-        <v>1884238.27</v>
+        <v>2006199.59</v>
       </c>
       <c r="CK33" t="s">
         <v>247</v>
@@ -10453,10 +10453,10 @@
         <v>3466108</v>
       </c>
       <c r="CM33">
-        <v>2562317.35</v>
+        <v>2466081.72</v>
       </c>
       <c r="CN33">
-        <v>1864772.43</v>
+        <v>1652795.45</v>
       </c>
       <c r="CO33" t="s">
         <v>247</v>
